--- a/fips/aricles.xlsx
+++ b/fips/aricles.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19170" windowHeight="8280"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19170" windowHeight="8280" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Публикации" sheetId="1" r:id="rId1"/>
@@ -17802,9 +17802,6 @@
 Кафедра ИУ3(МГТУ)</t>
   </si>
   <si>
-    <t>Институт проблем управления МГТУ им. Баумана</t>
-  </si>
-  <si>
     <t>Вычислительный центр им. А.А. Дородницына Российской академии наук</t>
   </si>
   <si>
@@ -17892,10 +17889,6 @@
   </si>
   <si>
     <t>http://ris.ifmo.ru</t>
-  </si>
-  <si>
-    <t>Санкт-Петербургский институт информатики и автоматизации Российской академии наук (СПИИРАН),
-Национальный исследовательский университет Информационных технологий, механики и оптики (НИУ ИТМО)</t>
   </si>
   <si>
     <t>Лаборатория речевых и многомодальных интерфейсов(СПИИРАН), кафедра Речевых информационных систем (НИУ ИТМО)</t>
@@ -19037,6 +19030,13 @@
   </si>
   <si>
     <t>Исключить</t>
+  </si>
+  <si>
+    <t>Институт проблем управления; МГТУ им. Баумана</t>
+  </si>
+  <si>
+    <t>Санкт-Петербургский институт информатики и автоматизации Российской академии наук (СПИИРАН);
+Национальный исследовательский университет Информационных технологий, механики и оптики (НИУ ИТМО)</t>
   </si>
 </sst>
 </file>
@@ -19616,9 +19616,9 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:N655"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B14" sqref="B14"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A121" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G130" sqref="G130"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -19670,10 +19670,10 @@
         <v>627</v>
       </c>
       <c r="L1" s="29" t="s">
-        <v>720</v>
+        <v>718</v>
       </c>
       <c r="M1" s="29" t="s">
-        <v>721</v>
+        <v>719</v>
       </c>
       <c r="N1" s="30" t="s">
         <v>654</v>
@@ -25491,7 +25491,7 @@
       <c r="M130" s="7"/>
       <c r="N130" s="31" t="str">
         <f>INDEX(Авторы!C:C,MATCH(G130,Авторы!A:A,0))</f>
-        <v>Институт проблем управления МГТУ им. Баумана</v>
+        <v>Институт проблем управления; МГТУ им. Баумана</v>
       </c>
     </row>
     <row r="131" spans="1:14" ht="17.25" x14ac:dyDescent="0.25">
@@ -25536,7 +25536,7 @@
       <c r="M131" s="7"/>
       <c r="N131" s="31" t="str">
         <f>INDEX(Авторы!C:C,MATCH(G131,Авторы!A:A,0))</f>
-        <v>Институт проблем управления МГТУ им. Баумана</v>
+        <v>Институт проблем управления; МГТУ им. Баумана</v>
       </c>
     </row>
     <row r="132" spans="1:14" x14ac:dyDescent="0.25">
@@ -25581,7 +25581,7 @@
       <c r="M132" s="7"/>
       <c r="N132" s="31" t="str">
         <f>INDEX(Авторы!C:C,MATCH(G132,Авторы!A:A,0))</f>
-        <v>Институт проблем управления МГТУ им. Баумана</v>
+        <v>Институт проблем управления; МГТУ им. Баумана</v>
       </c>
     </row>
     <row r="133" spans="1:14" x14ac:dyDescent="0.25">
@@ -25626,7 +25626,7 @@
       <c r="M133" s="7"/>
       <c r="N133" s="31" t="str">
         <f>INDEX(Авторы!C:C,MATCH(G133,Авторы!A:A,0))</f>
-        <v>Институт проблем управления МГТУ им. Баумана</v>
+        <v>Институт проблем управления; МГТУ им. Баумана</v>
       </c>
     </row>
     <row r="134" spans="1:14" x14ac:dyDescent="0.25">
@@ -25671,7 +25671,7 @@
       <c r="M134" s="7"/>
       <c r="N134" s="31" t="str">
         <f>INDEX(Авторы!C:C,MATCH(G134,Авторы!A:A,0))</f>
-        <v>Институт проблем управления МГТУ им. Баумана</v>
+        <v>Институт проблем управления; МГТУ им. Баумана</v>
       </c>
     </row>
     <row r="135" spans="1:14" x14ac:dyDescent="0.25">
@@ -25716,7 +25716,7 @@
       <c r="M135" s="7"/>
       <c r="N135" s="31" t="str">
         <f>INDEX(Авторы!C:C,MATCH(G135,Авторы!A:A,0))</f>
-        <v>Институт проблем управления МГТУ им. Баумана</v>
+        <v>Институт проблем управления; МГТУ им. Баумана</v>
       </c>
     </row>
     <row r="136" spans="1:14" ht="30" x14ac:dyDescent="0.25">
@@ -25761,7 +25761,7 @@
       <c r="M136" s="7"/>
       <c r="N136" s="31" t="str">
         <f>INDEX(Авторы!C:C,MATCH(G136,Авторы!A:A,0))</f>
-        <v>Институт проблем управления МГТУ им. Баумана</v>
+        <v>Институт проблем управления; МГТУ им. Баумана</v>
       </c>
     </row>
     <row r="137" spans="1:14" ht="45" x14ac:dyDescent="0.25">
@@ -25806,7 +25806,7 @@
       <c r="M137" s="7"/>
       <c r="N137" s="31" t="str">
         <f>INDEX(Авторы!C:C,MATCH(G137,Авторы!A:A,0))</f>
-        <v>Институт проблем управления МГТУ им. Баумана</v>
+        <v>Институт проблем управления; МГТУ им. Баумана</v>
       </c>
     </row>
     <row r="138" spans="1:14" x14ac:dyDescent="0.25">
@@ -25851,7 +25851,7 @@
       <c r="M138" s="7"/>
       <c r="N138" s="31" t="str">
         <f>INDEX(Авторы!C:C,MATCH(G138,Авторы!A:A,0))</f>
-        <v>Институт проблем управления МГТУ им. Баумана</v>
+        <v>Институт проблем управления; МГТУ им. Баумана</v>
       </c>
     </row>
     <row r="139" spans="1:14" x14ac:dyDescent="0.25">
@@ -25896,7 +25896,7 @@
       <c r="M139" s="7"/>
       <c r="N139" s="31" t="str">
         <f>INDEX(Авторы!C:C,MATCH(G139,Авторы!A:A,0))</f>
-        <v>Институт проблем управления МГТУ им. Баумана</v>
+        <v>Институт проблем управления; МГТУ им. Баумана</v>
       </c>
     </row>
     <row r="140" spans="1:14" x14ac:dyDescent="0.25">
@@ -25941,7 +25941,7 @@
       <c r="M140" s="7"/>
       <c r="N140" s="31" t="str">
         <f>INDEX(Авторы!C:C,MATCH(G140,Авторы!A:A,0))</f>
-        <v>Институт проблем управления МГТУ им. Баумана</v>
+        <v>Институт проблем управления; МГТУ им. Баумана</v>
       </c>
     </row>
     <row r="141" spans="1:14" x14ac:dyDescent="0.25">
@@ -25986,7 +25986,7 @@
       <c r="M141" s="7"/>
       <c r="N141" s="31" t="str">
         <f>INDEX(Авторы!C:C,MATCH(G141,Авторы!A:A,0))</f>
-        <v>Институт проблем управления МГТУ им. Баумана</v>
+        <v>Институт проблем управления; МГТУ им. Баумана</v>
       </c>
     </row>
     <row r="142" spans="1:14" x14ac:dyDescent="0.25">
@@ -26031,7 +26031,7 @@
       <c r="M142" s="7"/>
       <c r="N142" s="31" t="str">
         <f>INDEX(Авторы!C:C,MATCH(G142,Авторы!A:A,0))</f>
-        <v>Институт проблем управления МГТУ им. Баумана</v>
+        <v>Институт проблем управления; МГТУ им. Баумана</v>
       </c>
     </row>
     <row r="143" spans="1:14" ht="45" x14ac:dyDescent="0.25">
@@ -26076,7 +26076,7 @@
       <c r="M143" s="7"/>
       <c r="N143" s="31" t="str">
         <f>INDEX(Авторы!C:C,MATCH(G143,Авторы!A:A,0))</f>
-        <v>Институт проблем управления МГТУ им. Баумана</v>
+        <v>Институт проблем управления; МГТУ им. Баумана</v>
       </c>
     </row>
     <row r="144" spans="1:14" ht="21" x14ac:dyDescent="0.25">
@@ -26121,7 +26121,7 @@
       <c r="M144" s="7"/>
       <c r="N144" s="31" t="str">
         <f>INDEX(Авторы!C:C,MATCH(G144,Авторы!A:A,0))</f>
-        <v>Институт проблем управления МГТУ им. Баумана</v>
+        <v>Институт проблем управления; МГТУ им. Баумана</v>
       </c>
     </row>
     <row r="145" spans="1:14" x14ac:dyDescent="0.25">
@@ -26166,7 +26166,7 @@
       <c r="M145" s="7"/>
       <c r="N145" s="31" t="str">
         <f>INDEX(Авторы!C:C,MATCH(G145,Авторы!A:A,0))</f>
-        <v>Институт проблем управления МГТУ им. Баумана</v>
+        <v>Институт проблем управления; МГТУ им. Баумана</v>
       </c>
     </row>
     <row r="146" spans="1:14" ht="21" x14ac:dyDescent="0.25">
@@ -26211,7 +26211,7 @@
       <c r="M146" s="7"/>
       <c r="N146" s="31" t="str">
         <f>INDEX(Авторы!C:C,MATCH(G146,Авторы!A:A,0))</f>
-        <v>Институт проблем управления МГТУ им. Баумана</v>
+        <v>Институт проблем управления; МГТУ им. Баумана</v>
       </c>
     </row>
     <row r="147" spans="1:14" ht="21" x14ac:dyDescent="0.25">
@@ -26256,7 +26256,7 @@
       <c r="M147" s="7"/>
       <c r="N147" s="31" t="str">
         <f>INDEX(Авторы!C:C,MATCH(G147,Авторы!A:A,0))</f>
-        <v>Институт проблем управления МГТУ им. Баумана</v>
+        <v>Институт проблем управления; МГТУ им. Баумана</v>
       </c>
     </row>
     <row r="148" spans="1:14" ht="21" x14ac:dyDescent="0.25">
@@ -26301,7 +26301,7 @@
       <c r="M148" s="7"/>
       <c r="N148" s="31" t="str">
         <f>INDEX(Авторы!C:C,MATCH(G148,Авторы!A:A,0))</f>
-        <v>Институт проблем управления МГТУ им. Баумана</v>
+        <v>Институт проблем управления; МГТУ им. Баумана</v>
       </c>
     </row>
     <row r="149" spans="1:14" ht="21" x14ac:dyDescent="0.25">
@@ -26346,7 +26346,7 @@
       <c r="M149" s="7"/>
       <c r="N149" s="31" t="str">
         <f>INDEX(Авторы!C:C,MATCH(G149,Авторы!A:A,0))</f>
-        <v>Институт проблем управления МГТУ им. Баумана</v>
+        <v>Институт проблем управления; МГТУ им. Баумана</v>
       </c>
     </row>
     <row r="150" spans="1:14" ht="21" x14ac:dyDescent="0.25">
@@ -26391,7 +26391,7 @@
       <c r="M150" s="7"/>
       <c r="N150" s="31" t="str">
         <f>INDEX(Авторы!C:C,MATCH(G150,Авторы!A:A,0))</f>
-        <v>Институт проблем управления МГТУ им. Баумана</v>
+        <v>Институт проблем управления; МГТУ им. Баумана</v>
       </c>
     </row>
     <row r="151" spans="1:14" ht="31.5" x14ac:dyDescent="0.25">
@@ -26436,7 +26436,7 @@
       <c r="M151" s="7"/>
       <c r="N151" s="31" t="str">
         <f>INDEX(Авторы!C:C,MATCH(G151,Авторы!A:A,0))</f>
-        <v>Институт проблем управления МГТУ им. Баумана</v>
+        <v>Институт проблем управления; МГТУ им. Баумана</v>
       </c>
     </row>
     <row r="152" spans="1:14" ht="31.5" x14ac:dyDescent="0.25">
@@ -26481,7 +26481,7 @@
       <c r="M152" s="7"/>
       <c r="N152" s="31" t="str">
         <f>INDEX(Авторы!C:C,MATCH(G152,Авторы!A:A,0))</f>
-        <v>Институт проблем управления МГТУ им. Баумана</v>
+        <v>Институт проблем управления; МГТУ им. Баумана</v>
       </c>
     </row>
     <row r="153" spans="1:14" ht="21" x14ac:dyDescent="0.25">
@@ -26526,7 +26526,7 @@
       <c r="M153" s="7"/>
       <c r="N153" s="31" t="str">
         <f>INDEX(Авторы!C:C,MATCH(G153,Авторы!A:A,0))</f>
-        <v>Институт проблем управления МГТУ им. Баумана</v>
+        <v>Институт проблем управления; МГТУ им. Баумана</v>
       </c>
     </row>
     <row r="154" spans="1:14" ht="21" x14ac:dyDescent="0.25">
@@ -26571,7 +26571,7 @@
       <c r="M154" s="7"/>
       <c r="N154" s="31" t="str">
         <f>INDEX(Авторы!C:C,MATCH(G154,Авторы!A:A,0))</f>
-        <v>Институт проблем управления МГТУ им. Баумана</v>
+        <v>Институт проблем управления; МГТУ им. Баумана</v>
       </c>
     </row>
     <row r="155" spans="1:14" ht="31.5" x14ac:dyDescent="0.25">
@@ -26616,7 +26616,7 @@
       <c r="M155" s="7"/>
       <c r="N155" s="31" t="str">
         <f>INDEX(Авторы!C:C,MATCH(G155,Авторы!A:A,0))</f>
-        <v>Институт проблем управления МГТУ им. Баумана</v>
+        <v>Институт проблем управления; МГТУ им. Баумана</v>
       </c>
     </row>
     <row r="156" spans="1:14" ht="21" x14ac:dyDescent="0.25">
@@ -26661,7 +26661,7 @@
       <c r="M156" s="7"/>
       <c r="N156" s="31" t="str">
         <f>INDEX(Авторы!C:C,MATCH(G156,Авторы!A:A,0))</f>
-        <v>Институт проблем управления МГТУ им. Баумана</v>
+        <v>Институт проблем управления; МГТУ им. Баумана</v>
       </c>
     </row>
     <row r="157" spans="1:14" ht="21" x14ac:dyDescent="0.25">
@@ -26706,7 +26706,7 @@
       <c r="M157" s="7"/>
       <c r="N157" s="31" t="str">
         <f>INDEX(Авторы!C:C,MATCH(G157,Авторы!A:A,0))</f>
-        <v>Институт проблем управления МГТУ им. Баумана</v>
+        <v>Институт проблем управления; МГТУ им. Баумана</v>
       </c>
     </row>
     <row r="158" spans="1:14" ht="21" x14ac:dyDescent="0.25">
@@ -26751,7 +26751,7 @@
       <c r="M158" s="7"/>
       <c r="N158" s="31" t="str">
         <f>INDEX(Авторы!C:C,MATCH(G158,Авторы!A:A,0))</f>
-        <v>Институт проблем управления МГТУ им. Баумана</v>
+        <v>Институт проблем управления; МГТУ им. Баумана</v>
       </c>
     </row>
     <row r="159" spans="1:14" ht="21" x14ac:dyDescent="0.25">
@@ -26796,7 +26796,7 @@
       <c r="M159" s="7"/>
       <c r="N159" s="31" t="str">
         <f>INDEX(Авторы!C:C,MATCH(G159,Авторы!A:A,0))</f>
-        <v>Институт проблем управления МГТУ им. Баумана</v>
+        <v>Институт проблем управления; МГТУ им. Баумана</v>
       </c>
     </row>
     <row r="160" spans="1:14" ht="31.5" x14ac:dyDescent="0.25">
@@ -26841,7 +26841,7 @@
       <c r="M160" s="7"/>
       <c r="N160" s="31" t="str">
         <f>INDEX(Авторы!C:C,MATCH(G160,Авторы!A:A,0))</f>
-        <v>Институт проблем управления МГТУ им. Баумана</v>
+        <v>Институт проблем управления; МГТУ им. Баумана</v>
       </c>
     </row>
     <row r="161" spans="1:14" ht="21" x14ac:dyDescent="0.25">
@@ -26886,7 +26886,7 @@
       <c r="M161" s="7"/>
       <c r="N161" s="31" t="str">
         <f>INDEX(Авторы!C:C,MATCH(G161,Авторы!A:A,0))</f>
-        <v>Институт проблем управления МГТУ им. Баумана</v>
+        <v>Институт проблем управления; МГТУ им. Баумана</v>
       </c>
     </row>
     <row r="162" spans="1:14" ht="21" x14ac:dyDescent="0.25">
@@ -26931,7 +26931,7 @@
       <c r="M162" s="7"/>
       <c r="N162" s="31" t="str">
         <f>INDEX(Авторы!C:C,MATCH(G162,Авторы!A:A,0))</f>
-        <v>Институт проблем управления МГТУ им. Баумана</v>
+        <v>Институт проблем управления; МГТУ им. Баумана</v>
       </c>
     </row>
     <row r="163" spans="1:14" ht="31.5" x14ac:dyDescent="0.25">
@@ -26976,7 +26976,7 @@
       <c r="M163" s="7"/>
       <c r="N163" s="31" t="str">
         <f>INDEX(Авторы!C:C,MATCH(G163,Авторы!A:A,0))</f>
-        <v>Институт проблем управления МГТУ им. Баумана</v>
+        <v>Институт проблем управления; МГТУ им. Баумана</v>
       </c>
     </row>
     <row r="164" spans="1:14" ht="21" x14ac:dyDescent="0.25">
@@ -27021,7 +27021,7 @@
       <c r="M164" s="7"/>
       <c r="N164" s="31" t="str">
         <f>INDEX(Авторы!C:C,MATCH(G164,Авторы!A:A,0))</f>
-        <v>Институт проблем управления МГТУ им. Баумана</v>
+        <v>Институт проблем управления; МГТУ им. Баумана</v>
       </c>
     </row>
     <row r="165" spans="1:14" ht="21" x14ac:dyDescent="0.25">
@@ -27066,7 +27066,7 @@
       <c r="M165" s="7"/>
       <c r="N165" s="31" t="str">
         <f>INDEX(Авторы!C:C,MATCH(G165,Авторы!A:A,0))</f>
-        <v>Институт проблем управления МГТУ им. Баумана</v>
+        <v>Институт проблем управления; МГТУ им. Баумана</v>
       </c>
     </row>
     <row r="166" spans="1:14" ht="31.5" x14ac:dyDescent="0.25">
@@ -27111,7 +27111,7 @@
       <c r="M166" s="7"/>
       <c r="N166" s="31" t="str">
         <f>INDEX(Авторы!C:C,MATCH(G166,Авторы!A:A,0))</f>
-        <v>Институт проблем управления МГТУ им. Баумана</v>
+        <v>Институт проблем управления; МГТУ им. Баумана</v>
       </c>
     </row>
     <row r="167" spans="1:14" ht="21" x14ac:dyDescent="0.25">
@@ -27156,7 +27156,7 @@
       <c r="M167" s="7"/>
       <c r="N167" s="31" t="str">
         <f>INDEX(Авторы!C:C,MATCH(G167,Авторы!A:A,0))</f>
-        <v>Институт проблем управления МГТУ им. Баумана</v>
+        <v>Институт проблем управления; МГТУ им. Баумана</v>
       </c>
     </row>
     <row r="168" spans="1:14" ht="21" x14ac:dyDescent="0.25">
@@ -27201,7 +27201,7 @@
       <c r="M168" s="7"/>
       <c r="N168" s="31" t="str">
         <f>INDEX(Авторы!C:C,MATCH(G168,Авторы!A:A,0))</f>
-        <v>Институт проблем управления МГТУ им. Баумана</v>
+        <v>Институт проблем управления; МГТУ им. Баумана</v>
       </c>
     </row>
     <row r="169" spans="1:14" ht="21" x14ac:dyDescent="0.25">
@@ -27246,7 +27246,7 @@
       <c r="M169" s="7"/>
       <c r="N169" s="31" t="str">
         <f>INDEX(Авторы!C:C,MATCH(G169,Авторы!A:A,0))</f>
-        <v>Институт проблем управления МГТУ им. Баумана</v>
+        <v>Институт проблем управления; МГТУ им. Баумана</v>
       </c>
     </row>
     <row r="170" spans="1:14" ht="21" x14ac:dyDescent="0.25">
@@ -27291,7 +27291,7 @@
       <c r="M170" s="7"/>
       <c r="N170" s="31" t="str">
         <f>INDEX(Авторы!C:C,MATCH(G170,Авторы!A:A,0))</f>
-        <v>Институт проблем управления МГТУ им. Баумана</v>
+        <v>Институт проблем управления; МГТУ им. Баумана</v>
       </c>
     </row>
     <row r="171" spans="1:14" ht="21" x14ac:dyDescent="0.25">
@@ -27336,7 +27336,7 @@
       <c r="M171" s="7"/>
       <c r="N171" s="31" t="str">
         <f>INDEX(Авторы!C:C,MATCH(G171,Авторы!A:A,0))</f>
-        <v>Институт проблем управления МГТУ им. Баумана</v>
+        <v>Институт проблем управления; МГТУ им. Баумана</v>
       </c>
     </row>
     <row r="172" spans="1:14" ht="21" x14ac:dyDescent="0.25">
@@ -27381,7 +27381,7 @@
       <c r="M172" s="7"/>
       <c r="N172" s="31" t="str">
         <f>INDEX(Авторы!C:C,MATCH(G172,Авторы!A:A,0))</f>
-        <v>Институт проблем управления МГТУ им. Баумана</v>
+        <v>Институт проблем управления; МГТУ им. Баумана</v>
       </c>
     </row>
     <row r="173" spans="1:14" x14ac:dyDescent="0.25">
@@ -27426,7 +27426,7 @@
       <c r="M173" s="7"/>
       <c r="N173" s="31" t="str">
         <f>INDEX(Авторы!C:C,MATCH(G173,Авторы!A:A,0))</f>
-        <v>Институт проблем управления МГТУ им. Баумана</v>
+        <v>Институт проблем управления; МГТУ им. Баумана</v>
       </c>
     </row>
     <row r="174" spans="1:14" ht="21" x14ac:dyDescent="0.25">
@@ -27471,7 +27471,7 @@
       <c r="M174" s="7"/>
       <c r="N174" s="31" t="str">
         <f>INDEX(Авторы!C:C,MATCH(G174,Авторы!A:A,0))</f>
-        <v>Институт проблем управления МГТУ им. Баумана</v>
+        <v>Институт проблем управления; МГТУ им. Баумана</v>
       </c>
     </row>
     <row r="175" spans="1:14" ht="21" x14ac:dyDescent="0.25">
@@ -27516,7 +27516,7 @@
       <c r="M175" s="7"/>
       <c r="N175" s="31" t="str">
         <f>INDEX(Авторы!C:C,MATCH(G175,Авторы!A:A,0))</f>
-        <v>Институт проблем управления МГТУ им. Баумана</v>
+        <v>Институт проблем управления; МГТУ им. Баумана</v>
       </c>
     </row>
     <row r="176" spans="1:14" ht="21" x14ac:dyDescent="0.25">
@@ -27561,7 +27561,7 @@
       <c r="M176" s="7"/>
       <c r="N176" s="31" t="str">
         <f>INDEX(Авторы!C:C,MATCH(G176,Авторы!A:A,0))</f>
-        <v>Институт проблем управления МГТУ им. Баумана</v>
+        <v>Институт проблем управления; МГТУ им. Баумана</v>
       </c>
     </row>
     <row r="177" spans="1:14" x14ac:dyDescent="0.25">
@@ -27606,7 +27606,7 @@
       <c r="M177" s="7"/>
       <c r="N177" s="31" t="str">
         <f>INDEX(Авторы!C:C,MATCH(G177,Авторы!A:A,0))</f>
-        <v>Институт проблем управления МГТУ им. Баумана</v>
+        <v>Институт проблем управления; МГТУ им. Баумана</v>
       </c>
     </row>
     <row r="178" spans="1:14" ht="31.5" x14ac:dyDescent="0.25">
@@ -27651,7 +27651,7 @@
       <c r="M178" s="7"/>
       <c r="N178" s="31" t="str">
         <f>INDEX(Авторы!C:C,MATCH(G178,Авторы!A:A,0))</f>
-        <v>Институт проблем управления МГТУ им. Баумана</v>
+        <v>Институт проблем управления; МГТУ им. Баумана</v>
       </c>
     </row>
     <row r="179" spans="1:14" ht="21" x14ac:dyDescent="0.25">
@@ -27696,7 +27696,7 @@
       <c r="M179" s="7"/>
       <c r="N179" s="31" t="str">
         <f>INDEX(Авторы!C:C,MATCH(G179,Авторы!A:A,0))</f>
-        <v>Институт проблем управления МГТУ им. Баумана</v>
+        <v>Институт проблем управления; МГТУ им. Баумана</v>
       </c>
     </row>
     <row r="180" spans="1:14" x14ac:dyDescent="0.25">
@@ -27741,7 +27741,7 @@
       <c r="M180" s="7"/>
       <c r="N180" s="31" t="str">
         <f>INDEX(Авторы!C:C,MATCH(G180,Авторы!A:A,0))</f>
-        <v>Институт проблем управления МГТУ им. Баумана</v>
+        <v>Институт проблем управления; МГТУ им. Баумана</v>
       </c>
     </row>
     <row r="181" spans="1:14" ht="21" x14ac:dyDescent="0.25">
@@ -27786,7 +27786,7 @@
       <c r="M181" s="7"/>
       <c r="N181" s="31" t="str">
         <f>INDEX(Авторы!C:C,MATCH(G181,Авторы!A:A,0))</f>
-        <v>Институт проблем управления МГТУ им. Баумана</v>
+        <v>Институт проблем управления; МГТУ им. Баумана</v>
       </c>
     </row>
     <row r="182" spans="1:14" ht="21" x14ac:dyDescent="0.25">
@@ -27831,7 +27831,7 @@
       <c r="M182" s="7"/>
       <c r="N182" s="31" t="str">
         <f>INDEX(Авторы!C:C,MATCH(G182,Авторы!A:A,0))</f>
-        <v>Институт проблем управления МГТУ им. Баумана</v>
+        <v>Институт проблем управления; МГТУ им. Баумана</v>
       </c>
     </row>
     <row r="183" spans="1:14" ht="21" x14ac:dyDescent="0.25">
@@ -27876,7 +27876,7 @@
       <c r="M183" s="7"/>
       <c r="N183" s="31" t="str">
         <f>INDEX(Авторы!C:C,MATCH(G183,Авторы!A:A,0))</f>
-        <v>Институт проблем управления МГТУ им. Баумана</v>
+        <v>Институт проблем управления; МГТУ им. Баумана</v>
       </c>
     </row>
     <row r="184" spans="1:14" ht="21" x14ac:dyDescent="0.25">
@@ -27921,7 +27921,7 @@
       <c r="M184" s="7"/>
       <c r="N184" s="31" t="str">
         <f>INDEX(Авторы!C:C,MATCH(G184,Авторы!A:A,0))</f>
-        <v>Институт проблем управления МГТУ им. Баумана</v>
+        <v>Институт проблем управления; МГТУ им. Баумана</v>
       </c>
     </row>
     <row r="185" spans="1:14" ht="21" x14ac:dyDescent="0.25">
@@ -27966,7 +27966,7 @@
       <c r="M185" s="7"/>
       <c r="N185" s="31" t="str">
         <f>INDEX(Авторы!C:C,MATCH(G185,Авторы!A:A,0))</f>
-        <v>Институт проблем управления МГТУ им. Баумана</v>
+        <v>Институт проблем управления; МГТУ им. Баумана</v>
       </c>
     </row>
     <row r="186" spans="1:14" ht="21" x14ac:dyDescent="0.25">
@@ -28011,7 +28011,7 @@
       <c r="M186" s="7"/>
       <c r="N186" s="31" t="str">
         <f>INDEX(Авторы!C:C,MATCH(G186,Авторы!A:A,0))</f>
-        <v>Институт проблем управления МГТУ им. Баумана</v>
+        <v>Институт проблем управления; МГТУ им. Баумана</v>
       </c>
     </row>
     <row r="187" spans="1:14" ht="21" x14ac:dyDescent="0.25">
@@ -28056,7 +28056,7 @@
       <c r="M187" s="7"/>
       <c r="N187" s="31" t="str">
         <f>INDEX(Авторы!C:C,MATCH(G187,Авторы!A:A,0))</f>
-        <v>Институт проблем управления МГТУ им. Баумана</v>
+        <v>Институт проблем управления; МГТУ им. Баумана</v>
       </c>
     </row>
     <row r="188" spans="1:14" ht="21" x14ac:dyDescent="0.25">
@@ -28101,7 +28101,7 @@
       <c r="M188" s="7"/>
       <c r="N188" s="31" t="str">
         <f>INDEX(Авторы!C:C,MATCH(G188,Авторы!A:A,0))</f>
-        <v>Институт проблем управления МГТУ им. Баумана</v>
+        <v>Институт проблем управления; МГТУ им. Баумана</v>
       </c>
     </row>
     <row r="189" spans="1:14" ht="21" x14ac:dyDescent="0.25">
@@ -28146,7 +28146,7 @@
       <c r="M189" s="7"/>
       <c r="N189" s="31" t="str">
         <f>INDEX(Авторы!C:C,MATCH(G189,Авторы!A:A,0))</f>
-        <v>Институт проблем управления МГТУ им. Баумана</v>
+        <v>Институт проблем управления; МГТУ им. Баумана</v>
       </c>
     </row>
     <row r="190" spans="1:14" x14ac:dyDescent="0.25">
@@ -28191,7 +28191,7 @@
       <c r="M190" s="7"/>
       <c r="N190" s="31" t="str">
         <f>INDEX(Авторы!C:C,MATCH(G190,Авторы!A:A,0))</f>
-        <v>Институт проблем управления МГТУ им. Баумана</v>
+        <v>Институт проблем управления; МГТУ им. Баумана</v>
       </c>
     </row>
     <row r="191" spans="1:14" x14ac:dyDescent="0.25">
@@ -28236,7 +28236,7 @@
       <c r="M191" s="7"/>
       <c r="N191" s="31" t="str">
         <f>INDEX(Авторы!C:C,MATCH(G191,Авторы!A:A,0))</f>
-        <v>Институт проблем управления МГТУ им. Баумана</v>
+        <v>Институт проблем управления; МГТУ им. Баумана</v>
       </c>
     </row>
     <row r="192" spans="1:14" x14ac:dyDescent="0.25">
@@ -28281,7 +28281,7 @@
       <c r="M192" s="7"/>
       <c r="N192" s="31" t="str">
         <f>INDEX(Авторы!C:C,MATCH(G192,Авторы!A:A,0))</f>
-        <v>Институт проблем управления МГТУ им. Баумана</v>
+        <v>Институт проблем управления; МГТУ им. Баумана</v>
       </c>
     </row>
     <row r="193" spans="1:14" x14ac:dyDescent="0.25">
@@ -28326,7 +28326,7 @@
       <c r="M193" s="7"/>
       <c r="N193" s="31" t="str">
         <f>INDEX(Авторы!C:C,MATCH(G193,Авторы!A:A,0))</f>
-        <v>Институт проблем управления МГТУ им. Баумана</v>
+        <v>Институт проблем управления; МГТУ им. Баумана</v>
       </c>
     </row>
     <row r="194" spans="1:14" ht="21" x14ac:dyDescent="0.25">
@@ -28371,7 +28371,7 @@
       <c r="M194" s="7"/>
       <c r="N194" s="31" t="str">
         <f>INDEX(Авторы!C:C,MATCH(G194,Авторы!A:A,0))</f>
-        <v>Институт проблем управления МГТУ им. Баумана</v>
+        <v>Институт проблем управления; МГТУ им. Баумана</v>
       </c>
     </row>
     <row r="195" spans="1:14" ht="21" x14ac:dyDescent="0.25">
@@ -28416,7 +28416,7 @@
       <c r="M195" s="7"/>
       <c r="N195" s="31" t="str">
         <f>INDEX(Авторы!C:C,MATCH(G195,Авторы!A:A,0))</f>
-        <v>Институт проблем управления МГТУ им. Баумана</v>
+        <v>Институт проблем управления; МГТУ им. Баумана</v>
       </c>
     </row>
     <row r="196" spans="1:14" ht="21" x14ac:dyDescent="0.25">
@@ -28461,7 +28461,7 @@
       <c r="M196" s="7"/>
       <c r="N196" s="31" t="str">
         <f>INDEX(Авторы!C:C,MATCH(G196,Авторы!A:A,0))</f>
-        <v>Институт проблем управления МГТУ им. Баумана</v>
+        <v>Институт проблем управления; МГТУ им. Баумана</v>
       </c>
     </row>
     <row r="197" spans="1:14" ht="21" x14ac:dyDescent="0.25">
@@ -28506,7 +28506,7 @@
       <c r="M197" s="7"/>
       <c r="N197" s="31" t="str">
         <f>INDEX(Авторы!C:C,MATCH(G197,Авторы!A:A,0))</f>
-        <v>Институт проблем управления МГТУ им. Баумана</v>
+        <v>Институт проблем управления; МГТУ им. Баумана</v>
       </c>
     </row>
     <row r="198" spans="1:14" x14ac:dyDescent="0.25">
@@ -28551,7 +28551,7 @@
       <c r="M198" s="7"/>
       <c r="N198" s="31" t="str">
         <f>INDEX(Авторы!C:C,MATCH(G198,Авторы!A:A,0))</f>
-        <v>Институт проблем управления МГТУ им. Баумана</v>
+        <v>Институт проблем управления; МГТУ им. Баумана</v>
       </c>
     </row>
     <row r="199" spans="1:14" ht="21" x14ac:dyDescent="0.25">
@@ -28596,7 +28596,7 @@
       <c r="M199" s="7"/>
       <c r="N199" s="31" t="str">
         <f>INDEX(Авторы!C:C,MATCH(G199,Авторы!A:A,0))</f>
-        <v>Институт проблем управления МГТУ им. Баумана</v>
+        <v>Институт проблем управления; МГТУ им. Баумана</v>
       </c>
     </row>
     <row r="200" spans="1:14" ht="21" x14ac:dyDescent="0.25">
@@ -28641,7 +28641,7 @@
       <c r="M200" s="7"/>
       <c r="N200" s="31" t="str">
         <f>INDEX(Авторы!C:C,MATCH(G200,Авторы!A:A,0))</f>
-        <v>Институт проблем управления МГТУ им. Баумана</v>
+        <v>Институт проблем управления; МГТУ им. Баумана</v>
       </c>
     </row>
     <row r="201" spans="1:14" ht="31.5" x14ac:dyDescent="0.25">
@@ -28686,7 +28686,7 @@
       <c r="M201" s="7"/>
       <c r="N201" s="31" t="str">
         <f>INDEX(Авторы!C:C,MATCH(G201,Авторы!A:A,0))</f>
-        <v>Институт проблем управления МГТУ им. Баумана</v>
+        <v>Институт проблем управления; МГТУ им. Баумана</v>
       </c>
     </row>
     <row r="202" spans="1:14" ht="21" x14ac:dyDescent="0.25">
@@ -28731,7 +28731,7 @@
       <c r="M202" s="7"/>
       <c r="N202" s="31" t="str">
         <f>INDEX(Авторы!C:C,MATCH(G202,Авторы!A:A,0))</f>
-        <v>Институт проблем управления МГТУ им. Баумана</v>
+        <v>Институт проблем управления; МГТУ им. Баумана</v>
       </c>
     </row>
     <row r="203" spans="1:14" x14ac:dyDescent="0.25">
@@ -28776,7 +28776,7 @@
       <c r="M203" s="7"/>
       <c r="N203" s="31" t="str">
         <f>INDEX(Авторы!C:C,MATCH(G203,Авторы!A:A,0))</f>
-        <v>Институт проблем управления МГТУ им. Баумана</v>
+        <v>Институт проблем управления; МГТУ им. Баумана</v>
       </c>
     </row>
     <row r="204" spans="1:14" ht="21" x14ac:dyDescent="0.25">
@@ -28821,7 +28821,7 @@
       <c r="M204" s="7"/>
       <c r="N204" s="31" t="str">
         <f>INDEX(Авторы!C:C,MATCH(G204,Авторы!A:A,0))</f>
-        <v>Институт проблем управления МГТУ им. Баумана</v>
+        <v>Институт проблем управления; МГТУ им. Баумана</v>
       </c>
     </row>
     <row r="205" spans="1:14" ht="21" x14ac:dyDescent="0.25">
@@ -28866,7 +28866,7 @@
       <c r="M205" s="7"/>
       <c r="N205" s="31" t="str">
         <f>INDEX(Авторы!C:C,MATCH(G205,Авторы!A:A,0))</f>
-        <v>Институт проблем управления МГТУ им. Баумана</v>
+        <v>Институт проблем управления; МГТУ им. Баумана</v>
       </c>
     </row>
     <row r="206" spans="1:14" ht="21" x14ac:dyDescent="0.25">
@@ -28911,7 +28911,7 @@
       <c r="M206" s="7"/>
       <c r="N206" s="31" t="str">
         <f>INDEX(Авторы!C:C,MATCH(G206,Авторы!A:A,0))</f>
-        <v>Институт проблем управления МГТУ им. Баумана</v>
+        <v>Институт проблем управления; МГТУ им. Баумана</v>
       </c>
     </row>
     <row r="207" spans="1:14" ht="21" x14ac:dyDescent="0.25">
@@ -28956,7 +28956,7 @@
       <c r="M207" s="7"/>
       <c r="N207" s="31" t="str">
         <f>INDEX(Авторы!C:C,MATCH(G207,Авторы!A:A,0))</f>
-        <v>Институт проблем управления МГТУ им. Баумана</v>
+        <v>Институт проблем управления; МГТУ им. Баумана</v>
       </c>
     </row>
     <row r="208" spans="1:14" x14ac:dyDescent="0.25">
@@ -29001,7 +29001,7 @@
       <c r="M208" s="7"/>
       <c r="N208" s="31" t="str">
         <f>INDEX(Авторы!C:C,MATCH(G208,Авторы!A:A,0))</f>
-        <v>Институт проблем управления МГТУ им. Баумана</v>
+        <v>Институт проблем управления; МГТУ им. Баумана</v>
       </c>
     </row>
     <row r="209" spans="1:14" x14ac:dyDescent="0.25">
@@ -29044,7 +29044,7 @@
       <c r="M209" s="7"/>
       <c r="N209" s="31" t="str">
         <f>INDEX(Авторы!C:C,MATCH(G209,Авторы!A:A,0))</f>
-        <v>Институт проблем управления МГТУ им. Баумана</v>
+        <v>Институт проблем управления; МГТУ им. Баумана</v>
       </c>
     </row>
     <row r="210" spans="1:14" ht="30" x14ac:dyDescent="0.25">
@@ -36775,7 +36775,7 @@
       </c>
       <c r="N380" s="31" t="str">
         <f>INDEX(Авторы!C:C,MATCH(G380,Авторы!A:A,0))</f>
-        <v>Санкт-Петербургский институт информатики и автоматизации Российской академии наук (СПИИРАН),
+        <v>Санкт-Петербургский институт информатики и автоматизации Российской академии наук (СПИИРАН);
 Национальный исследовательский университет Информационных технологий, механики и оптики (НИУ ИТМО)</v>
       </c>
     </row>
@@ -36821,7 +36821,7 @@
       <c r="M381" s="7"/>
       <c r="N381" s="31" t="str">
         <f>INDEX(Авторы!C:C,MATCH(G381,Авторы!A:A,0))</f>
-        <v>Санкт-Петербургский институт информатики и автоматизации Российской академии наук (СПИИРАН),
+        <v>Санкт-Петербургский институт информатики и автоматизации Российской академии наук (СПИИРАН);
 Национальный исследовательский университет Информационных технологий, механики и оптики (НИУ ИТМО)</v>
       </c>
     </row>
@@ -36869,7 +36869,7 @@
       </c>
       <c r="N382" s="31" t="str">
         <f>INDEX(Авторы!C:C,MATCH(G382,Авторы!A:A,0))</f>
-        <v>Санкт-Петербургский институт информатики и автоматизации Российской академии наук (СПИИРАН),
+        <v>Санкт-Петербургский институт информатики и автоматизации Российской академии наук (СПИИРАН);
 Национальный исследовательский университет Информационных технологий, механики и оптики (НИУ ИТМО)</v>
       </c>
     </row>
@@ -36915,7 +36915,7 @@
       <c r="M383" s="7"/>
       <c r="N383" s="31" t="str">
         <f>INDEX(Авторы!C:C,MATCH(G383,Авторы!A:A,0))</f>
-        <v>Санкт-Петербургский институт информатики и автоматизации Российской академии наук (СПИИРАН),
+        <v>Санкт-Петербургский институт информатики и автоматизации Российской академии наук (СПИИРАН);
 Национальный исследовательский университет Информационных технологий, механики и оптики (НИУ ИТМО)</v>
       </c>
     </row>
@@ -36961,7 +36961,7 @@
       <c r="M384" s="7"/>
       <c r="N384" s="31" t="str">
         <f>INDEX(Авторы!C:C,MATCH(G384,Авторы!A:A,0))</f>
-        <v>Санкт-Петербургский институт информатики и автоматизации Российской академии наук (СПИИРАН),
+        <v>Санкт-Петербургский институт информатики и автоматизации Российской академии наук (СПИИРАН);
 Национальный исследовательский университет Информационных технологий, механики и оптики (НИУ ИТМО)</v>
       </c>
     </row>
@@ -37007,7 +37007,7 @@
       <c r="M385" s="7"/>
       <c r="N385" s="31" t="str">
         <f>INDEX(Авторы!C:C,MATCH(G385,Авторы!A:A,0))</f>
-        <v>Санкт-Петербургский институт информатики и автоматизации Российской академии наук (СПИИРАН),
+        <v>Санкт-Петербургский институт информатики и автоматизации Российской академии наук (СПИИРАН);
 Национальный исследовательский университет Информационных технологий, механики и оптики (НИУ ИТМО)</v>
       </c>
     </row>
@@ -37053,7 +37053,7 @@
       <c r="M386" s="7"/>
       <c r="N386" s="31" t="str">
         <f>INDEX(Авторы!C:C,MATCH(G386,Авторы!A:A,0))</f>
-        <v>Санкт-Петербургский институт информатики и автоматизации Российской академии наук (СПИИРАН),
+        <v>Санкт-Петербургский институт информатики и автоматизации Российской академии наук (СПИИРАН);
 Национальный исследовательский университет Информационных технологий, механики и оптики (НИУ ИТМО)</v>
       </c>
     </row>
@@ -37101,7 +37101,7 @@
       </c>
       <c r="N387" s="31" t="str">
         <f>INDEX(Авторы!C:C,MATCH(G387,Авторы!A:A,0))</f>
-        <v>Санкт-Петербургский институт информатики и автоматизации Российской академии наук (СПИИРАН),
+        <v>Санкт-Петербургский институт информатики и автоматизации Российской академии наук (СПИИРАН);
 Национальный исследовательский университет Информационных технологий, механики и оптики (НИУ ИТМО)</v>
       </c>
     </row>
@@ -37147,7 +37147,7 @@
       <c r="M388" s="7"/>
       <c r="N388" s="31" t="str">
         <f>INDEX(Авторы!C:C,MATCH(G388,Авторы!A:A,0))</f>
-        <v>Санкт-Петербургский институт информатики и автоматизации Российской академии наук (СПИИРАН),
+        <v>Санкт-Петербургский институт информатики и автоматизации Российской академии наук (СПИИРАН);
 Национальный исследовательский университет Информационных технологий, механики и оптики (НИУ ИТМО)</v>
       </c>
     </row>
@@ -37195,7 +37195,7 @@
       </c>
       <c r="N389" s="31" t="str">
         <f>INDEX(Авторы!C:C,MATCH(G389,Авторы!A:A,0))</f>
-        <v>Санкт-Петербургский институт информатики и автоматизации Российской академии наук (СПИИРАН),
+        <v>Санкт-Петербургский институт информатики и автоматизации Российской академии наук (СПИИРАН);
 Национальный исследовательский университет Информационных технологий, механики и оптики (НИУ ИТМО)</v>
       </c>
     </row>
@@ -37243,7 +37243,7 @@
       </c>
       <c r="N390" s="31" t="str">
         <f>INDEX(Авторы!C:C,MATCH(G390,Авторы!A:A,0))</f>
-        <v>Санкт-Петербургский институт информатики и автоматизации Российской академии наук (СПИИРАН),
+        <v>Санкт-Петербургский институт информатики и автоматизации Российской академии наук (СПИИРАН);
 Национальный исследовательский университет Информационных технологий, механики и оптики (НИУ ИТМО)</v>
       </c>
     </row>
@@ -37289,7 +37289,7 @@
       <c r="M391" s="7"/>
       <c r="N391" s="31" t="str">
         <f>INDEX(Авторы!C:C,MATCH(G391,Авторы!A:A,0))</f>
-        <v>Санкт-Петербургский институт информатики и автоматизации Российской академии наук (СПИИРАН),
+        <v>Санкт-Петербургский институт информатики и автоматизации Российской академии наук (СПИИРАН);
 Национальный исследовательский университет Информационных технологий, механики и оптики (НИУ ИТМО)</v>
       </c>
     </row>
@@ -37335,7 +37335,7 @@
       <c r="M392" s="7"/>
       <c r="N392" s="31" t="str">
         <f>INDEX(Авторы!C:C,MATCH(G392,Авторы!A:A,0))</f>
-        <v>Санкт-Петербургский институт информатики и автоматизации Российской академии наук (СПИИРАН),
+        <v>Санкт-Петербургский институт информатики и автоматизации Российской академии наук (СПИИРАН);
 Национальный исследовательский университет Информационных технологий, механики и оптики (НИУ ИТМО)</v>
       </c>
     </row>
@@ -37381,7 +37381,7 @@
       <c r="M393" s="7"/>
       <c r="N393" s="31" t="str">
         <f>INDEX(Авторы!C:C,MATCH(G393,Авторы!A:A,0))</f>
-        <v>Санкт-Петербургский институт информатики и автоматизации Российской академии наук (СПИИРАН),
+        <v>Санкт-Петербургский институт информатики и автоматизации Российской академии наук (СПИИРАН);
 Национальный исследовательский университет Информационных технологий, механики и оптики (НИУ ИТМО)</v>
       </c>
     </row>
@@ -37427,7 +37427,7 @@
       <c r="M394" s="7"/>
       <c r="N394" s="31" t="str">
         <f>INDEX(Авторы!C:C,MATCH(G394,Авторы!A:A,0))</f>
-        <v>Санкт-Петербургский институт информатики и автоматизации Российской академии наук (СПИИРАН),
+        <v>Санкт-Петербургский институт информатики и автоматизации Российской академии наук (СПИИРАН);
 Национальный исследовательский университет Информационных технологий, механики и оптики (НИУ ИТМО)</v>
       </c>
     </row>
@@ -37473,7 +37473,7 @@
       <c r="M395" s="7"/>
       <c r="N395" s="31" t="str">
         <f>INDEX(Авторы!C:C,MATCH(G395,Авторы!A:A,0))</f>
-        <v>Санкт-Петербургский институт информатики и автоматизации Российской академии наук (СПИИРАН),
+        <v>Санкт-Петербургский институт информатики и автоматизации Российской академии наук (СПИИРАН);
 Национальный исследовательский университет Информационных технологий, механики и оптики (НИУ ИТМО)</v>
       </c>
     </row>
@@ -37519,7 +37519,7 @@
       <c r="M396" s="7"/>
       <c r="N396" s="31" t="str">
         <f>INDEX(Авторы!C:C,MATCH(G396,Авторы!A:A,0))</f>
-        <v>Санкт-Петербургский институт информатики и автоматизации Российской академии наук (СПИИРАН),
+        <v>Санкт-Петербургский институт информатики и автоматизации Российской академии наук (СПИИРАН);
 Национальный исследовательский университет Информационных технологий, механики и оптики (НИУ ИТМО)</v>
       </c>
     </row>
@@ -37565,7 +37565,7 @@
       <c r="M397" s="7"/>
       <c r="N397" s="31" t="str">
         <f>INDEX(Авторы!C:C,MATCH(G397,Авторы!A:A,0))</f>
-        <v>Санкт-Петербургский институт информатики и автоматизации Российской академии наук (СПИИРАН),
+        <v>Санкт-Петербургский институт информатики и автоматизации Российской академии наук (СПИИРАН);
 Национальный исследовательский университет Информационных технологий, механики и оптики (НИУ ИТМО)</v>
       </c>
     </row>
@@ -37611,7 +37611,7 @@
       <c r="M398" s="7"/>
       <c r="N398" s="31" t="str">
         <f>INDEX(Авторы!C:C,MATCH(G398,Авторы!A:A,0))</f>
-        <v>Санкт-Петербургский институт информатики и автоматизации Российской академии наук (СПИИРАН),
+        <v>Санкт-Петербургский институт информатики и автоматизации Российской академии наук (СПИИРАН);
 Национальный исследовательский университет Информационных технологий, механики и оптики (НИУ ИТМО)</v>
       </c>
     </row>
@@ -37655,7 +37655,7 @@
       <c r="M399" s="7"/>
       <c r="N399" s="31" t="str">
         <f>INDEX(Авторы!C:C,MATCH(G399,Авторы!A:A,0))</f>
-        <v>Санкт-Петербургский институт информатики и автоматизации Российской академии наук (СПИИРАН),
+        <v>Санкт-Петербургский институт информатики и автоматизации Российской академии наук (СПИИРАН);
 Национальный исследовательский университет Информационных технологий, механики и оптики (НИУ ИТМО)</v>
       </c>
     </row>
@@ -37701,7 +37701,7 @@
       <c r="M400" s="7"/>
       <c r="N400" s="31" t="str">
         <f>INDEX(Авторы!C:C,MATCH(G400,Авторы!A:A,0))</f>
-        <v>Санкт-Петербургский институт информатики и автоматизации Российской академии наук (СПИИРАН),
+        <v>Санкт-Петербургский институт информатики и автоматизации Российской академии наук (СПИИРАН);
 Национальный исследовательский университет Информационных технологий, механики и оптики (НИУ ИТМО)</v>
       </c>
     </row>
@@ -37747,7 +37747,7 @@
       <c r="M401" s="7"/>
       <c r="N401" s="31" t="str">
         <f>INDEX(Авторы!C:C,MATCH(G401,Авторы!A:A,0))</f>
-        <v>Санкт-Петербургский институт информатики и автоматизации Российской академии наук (СПИИРАН),
+        <v>Санкт-Петербургский институт информатики и автоматизации Российской академии наук (СПИИРАН);
 Национальный исследовательский университет Информационных технологий, механики и оптики (НИУ ИТМО)</v>
       </c>
     </row>
@@ -37793,7 +37793,7 @@
       <c r="M402" s="7"/>
       <c r="N402" s="31" t="str">
         <f>INDEX(Авторы!C:C,MATCH(G402,Авторы!A:A,0))</f>
-        <v>Санкт-Петербургский институт информатики и автоматизации Российской академии наук (СПИИРАН),
+        <v>Санкт-Петербургский институт информатики и автоматизации Российской академии наук (СПИИРАН);
 Национальный исследовательский университет Информационных технологий, механики и оптики (НИУ ИТМО)</v>
       </c>
     </row>
@@ -37839,7 +37839,7 @@
       <c r="M403" s="7"/>
       <c r="N403" s="31" t="str">
         <f>INDEX(Авторы!C:C,MATCH(G403,Авторы!A:A,0))</f>
-        <v>Санкт-Петербургский институт информатики и автоматизации Российской академии наук (СПИИРАН),
+        <v>Санкт-Петербургский институт информатики и автоматизации Российской академии наук (СПИИРАН);
 Национальный исследовательский университет Информационных технологий, механики и оптики (НИУ ИТМО)</v>
       </c>
     </row>
@@ -37885,7 +37885,7 @@
       <c r="M404" s="7"/>
       <c r="N404" s="31" t="str">
         <f>INDEX(Авторы!C:C,MATCH(G404,Авторы!A:A,0))</f>
-        <v>Санкт-Петербургский институт информатики и автоматизации Российской академии наук (СПИИРАН),
+        <v>Санкт-Петербургский институт информатики и автоматизации Российской академии наук (СПИИРАН);
 Национальный исследовательский университет Информационных технологий, механики и оптики (НИУ ИТМО)</v>
       </c>
     </row>
@@ -37931,7 +37931,7 @@
       <c r="M405" s="7"/>
       <c r="N405" s="31" t="str">
         <f>INDEX(Авторы!C:C,MATCH(G405,Авторы!A:A,0))</f>
-        <v>Санкт-Петербургский институт информатики и автоматизации Российской академии наук (СПИИРАН),
+        <v>Санкт-Петербургский институт информатики и автоматизации Российской академии наук (СПИИРАН);
 Национальный исследовательский университет Информационных технологий, механики и оптики (НИУ ИТМО)</v>
       </c>
     </row>
@@ -37979,7 +37979,7 @@
       <c r="M406" s="7"/>
       <c r="N406" s="31" t="str">
         <f>INDEX(Авторы!C:C,MATCH(G406,Авторы!A:A,0))</f>
-        <v>Санкт-Петербургский институт информатики и автоматизации Российской академии наук (СПИИРАН),
+        <v>Санкт-Петербургский институт информатики и автоматизации Российской академии наук (СПИИРАН);
 Национальный исследовательский университет Информационных технологий, механики и оптики (НИУ ИТМО)</v>
       </c>
     </row>
@@ -38025,7 +38025,7 @@
       <c r="M407" s="7"/>
       <c r="N407" s="31" t="str">
         <f>INDEX(Авторы!C:C,MATCH(G407,Авторы!A:A,0))</f>
-        <v>Санкт-Петербургский институт информатики и автоматизации Российской академии наук (СПИИРАН),
+        <v>Санкт-Петербургский институт информатики и автоматизации Российской академии наук (СПИИРАН);
 Национальный исследовательский университет Информационных технологий, механики и оптики (НИУ ИТМО)</v>
       </c>
     </row>
@@ -38071,7 +38071,7 @@
       <c r="M408" s="7"/>
       <c r="N408" s="31" t="str">
         <f>INDEX(Авторы!C:C,MATCH(G408,Авторы!A:A,0))</f>
-        <v>Санкт-Петербургский институт информатики и автоматизации Российской академии наук (СПИИРАН),
+        <v>Санкт-Петербургский институт информатики и автоматизации Российской академии наук (СПИИРАН);
 Национальный исследовательский университет Информационных технологий, механики и оптики (НИУ ИТМО)</v>
       </c>
     </row>
@@ -38119,7 +38119,7 @@
       <c r="M409" s="7"/>
       <c r="N409" s="31" t="str">
         <f>INDEX(Авторы!C:C,MATCH(G409,Авторы!A:A,0))</f>
-        <v>Санкт-Петербургский институт информатики и автоматизации Российской академии наук (СПИИРАН),
+        <v>Санкт-Петербургский институт информатики и автоматизации Российской академии наук (СПИИРАН);
 Национальный исследовательский университет Информационных технологий, механики и оптики (НИУ ИТМО)</v>
       </c>
     </row>
@@ -38165,7 +38165,7 @@
       <c r="M410" s="7"/>
       <c r="N410" s="31" t="str">
         <f>INDEX(Авторы!C:C,MATCH(G410,Авторы!A:A,0))</f>
-        <v>Санкт-Петербургский институт информатики и автоматизации Российской академии наук (СПИИРАН),
+        <v>Санкт-Петербургский институт информатики и автоматизации Российской академии наук (СПИИРАН);
 Национальный исследовательский университет Информационных технологий, механики и оптики (НИУ ИТМО)</v>
       </c>
     </row>
@@ -38211,7 +38211,7 @@
       <c r="M411" s="7"/>
       <c r="N411" s="31" t="str">
         <f>INDEX(Авторы!C:C,MATCH(G411,Авторы!A:A,0))</f>
-        <v>Санкт-Петербургский институт информатики и автоматизации Российской академии наук (СПИИРАН),
+        <v>Санкт-Петербургский институт информатики и автоматизации Российской академии наук (СПИИРАН);
 Национальный исследовательский университет Информационных технологий, механики и оптики (НИУ ИТМО)</v>
       </c>
     </row>
@@ -38257,7 +38257,7 @@
       <c r="M412" s="7"/>
       <c r="N412" s="31" t="str">
         <f>INDEX(Авторы!C:C,MATCH(G412,Авторы!A:A,0))</f>
-        <v>Санкт-Петербургский институт информатики и автоматизации Российской академии наук (СПИИРАН),
+        <v>Санкт-Петербургский институт информатики и автоматизации Российской академии наук (СПИИРАН);
 Национальный исследовательский университет Информационных технологий, механики и оптики (НИУ ИТМО)</v>
       </c>
     </row>
@@ -38303,7 +38303,7 @@
       <c r="M413" s="7"/>
       <c r="N413" s="31" t="str">
         <f>INDEX(Авторы!C:C,MATCH(G413,Авторы!A:A,0))</f>
-        <v>Санкт-Петербургский институт информатики и автоматизации Российской академии наук (СПИИРАН),
+        <v>Санкт-Петербургский институт информатики и автоматизации Российской академии наук (СПИИРАН);
 Национальный исследовательский университет Информационных технологий, механики и оптики (НИУ ИТМО)</v>
       </c>
     </row>
@@ -38351,7 +38351,7 @@
       </c>
       <c r="N414" s="31" t="str">
         <f>INDEX(Авторы!C:C,MATCH(G414,Авторы!A:A,0))</f>
-        <v>Санкт-Петербургский институт информатики и автоматизации Российской академии наук (СПИИРАН),
+        <v>Санкт-Петербургский институт информатики и автоматизации Российской академии наук (СПИИРАН);
 Национальный исследовательский университет Информационных технологий, механики и оптики (НИУ ИТМО)</v>
       </c>
     </row>
@@ -38397,7 +38397,7 @@
       <c r="M415" s="7"/>
       <c r="N415" s="31" t="str">
         <f>INDEX(Авторы!C:C,MATCH(G415,Авторы!A:A,0))</f>
-        <v>Санкт-Петербургский институт информатики и автоматизации Российской академии наук (СПИИРАН),
+        <v>Санкт-Петербургский институт информатики и автоматизации Российской академии наук (СПИИРАН);
 Национальный исследовательский университет Информационных технологий, механики и оптики (НИУ ИТМО)</v>
       </c>
     </row>
@@ -38443,7 +38443,7 @@
       <c r="M416" s="7"/>
       <c r="N416" s="31" t="str">
         <f>INDEX(Авторы!C:C,MATCH(G416,Авторы!A:A,0))</f>
-        <v>Санкт-Петербургский институт информатики и автоматизации Российской академии наук (СПИИРАН),
+        <v>Санкт-Петербургский институт информатики и автоматизации Российской академии наук (СПИИРАН);
 Национальный исследовательский университет Информационных технологий, механики и оптики (НИУ ИТМО)</v>
       </c>
     </row>
@@ -38489,7 +38489,7 @@
       <c r="M417" s="7"/>
       <c r="N417" s="31" t="str">
         <f>INDEX(Авторы!C:C,MATCH(G417,Авторы!A:A,0))</f>
-        <v>Санкт-Петербургский институт информатики и автоматизации Российской академии наук (СПИИРАН),
+        <v>Санкт-Петербургский институт информатики и автоматизации Российской академии наук (СПИИРАН);
 Национальный исследовательский университет Информационных технологий, механики и оптики (НИУ ИТМО)</v>
       </c>
     </row>
@@ -38535,7 +38535,7 @@
       <c r="M418" s="7"/>
       <c r="N418" s="31" t="str">
         <f>INDEX(Авторы!C:C,MATCH(G418,Авторы!A:A,0))</f>
-        <v>Санкт-Петербургский институт информатики и автоматизации Российской академии наук (СПИИРАН),
+        <v>Санкт-Петербургский институт информатики и автоматизации Российской академии наук (СПИИРАН);
 Национальный исследовательский университет Информационных технологий, механики и оптики (НИУ ИТМО)</v>
       </c>
     </row>
@@ -38581,7 +38581,7 @@
       <c r="M419" s="7"/>
       <c r="N419" s="31" t="str">
         <f>INDEX(Авторы!C:C,MATCH(G419,Авторы!A:A,0))</f>
-        <v>Санкт-Петербургский институт информатики и автоматизации Российской академии наук (СПИИРАН),
+        <v>Санкт-Петербургский институт информатики и автоматизации Российской академии наук (СПИИРАН);
 Национальный исследовательский университет Информационных технологий, механики и оптики (НИУ ИТМО)</v>
       </c>
     </row>
@@ -38629,7 +38629,7 @@
       </c>
       <c r="N420" s="31" t="str">
         <f>INDEX(Авторы!C:C,MATCH(G420,Авторы!A:A,0))</f>
-        <v>Санкт-Петербургский институт информатики и автоматизации Российской академии наук (СПИИРАН),
+        <v>Санкт-Петербургский институт информатики и автоматизации Российской академии наук (СПИИРАН);
 Национальный исследовательский университет Информационных технологий, механики и оптики (НИУ ИТМО)</v>
       </c>
     </row>
@@ -38675,7 +38675,7 @@
       <c r="M421" s="7"/>
       <c r="N421" s="31" t="str">
         <f>INDEX(Авторы!C:C,MATCH(G421,Авторы!A:A,0))</f>
-        <v>Санкт-Петербургский институт информатики и автоматизации Российской академии наук (СПИИРАН),
+        <v>Санкт-Петербургский институт информатики и автоматизации Российской академии наук (СПИИРАН);
 Национальный исследовательский университет Информационных технологий, механики и оптики (НИУ ИТМО)</v>
       </c>
     </row>
@@ -38721,7 +38721,7 @@
       <c r="M422" s="7"/>
       <c r="N422" s="31" t="str">
         <f>INDEX(Авторы!C:C,MATCH(G422,Авторы!A:A,0))</f>
-        <v>Санкт-Петербургский институт информатики и автоматизации Российской академии наук (СПИИРАН),
+        <v>Санкт-Петербургский институт информатики и автоматизации Российской академии наук (СПИИРАН);
 Национальный исследовательский университет Информационных технологий, механики и оптики (НИУ ИТМО)</v>
       </c>
     </row>
@@ -38767,7 +38767,7 @@
       <c r="M423" s="7"/>
       <c r="N423" s="31" t="str">
         <f>INDEX(Авторы!C:C,MATCH(G423,Авторы!A:A,0))</f>
-        <v>Санкт-Петербургский институт информатики и автоматизации Российской академии наук (СПИИРАН),
+        <v>Санкт-Петербургский институт информатики и автоматизации Российской академии наук (СПИИРАН);
 Национальный исследовательский университет Информационных технологий, механики и оптики (НИУ ИТМО)</v>
       </c>
     </row>
@@ -38815,7 +38815,7 @@
       </c>
       <c r="N424" s="31" t="str">
         <f>INDEX(Авторы!C:C,MATCH(G424,Авторы!A:A,0))</f>
-        <v>Санкт-Петербургский институт информатики и автоматизации Российской академии наук (СПИИРАН),
+        <v>Санкт-Петербургский институт информатики и автоматизации Российской академии наук (СПИИРАН);
 Национальный исследовательский университет Информационных технологий, механики и оптики (НИУ ИТМО)</v>
       </c>
     </row>
@@ -38863,7 +38863,7 @@
       </c>
       <c r="N425" s="31" t="str">
         <f>INDEX(Авторы!C:C,MATCH(G425,Авторы!A:A,0))</f>
-        <v>Санкт-Петербургский институт информатики и автоматизации Российской академии наук (СПИИРАН),
+        <v>Санкт-Петербургский институт информатики и автоматизации Российской академии наук (СПИИРАН);
 Национальный исследовательский университет Информационных технологий, механики и оптики (НИУ ИТМО)</v>
       </c>
     </row>
@@ -38909,7 +38909,7 @@
       <c r="M426" s="7"/>
       <c r="N426" s="31" t="str">
         <f>INDEX(Авторы!C:C,MATCH(G426,Авторы!A:A,0))</f>
-        <v>Санкт-Петербургский институт информатики и автоматизации Российской академии наук (СПИИРАН),
+        <v>Санкт-Петербургский институт информатики и автоматизации Российской академии наук (СПИИРАН);
 Национальный исследовательский университет Информационных технологий, механики и оптики (НИУ ИТМО)</v>
       </c>
     </row>
@@ -38955,7 +38955,7 @@
       <c r="M427" s="7"/>
       <c r="N427" s="31" t="str">
         <f>INDEX(Авторы!C:C,MATCH(G427,Авторы!A:A,0))</f>
-        <v>Санкт-Петербургский институт информатики и автоматизации Российской академии наук (СПИИРАН),
+        <v>Санкт-Петербургский институт информатики и автоматизации Российской академии наук (СПИИРАН);
 Национальный исследовательский университет Информационных технологий, механики и оптики (НИУ ИТМО)</v>
       </c>
     </row>
@@ -39001,7 +39001,7 @@
       <c r="M428" s="7"/>
       <c r="N428" s="31" t="str">
         <f>INDEX(Авторы!C:C,MATCH(G428,Авторы!A:A,0))</f>
-        <v>Санкт-Петербургский институт информатики и автоматизации Российской академии наук (СПИИРАН),
+        <v>Санкт-Петербургский институт информатики и автоматизации Российской академии наук (СПИИРАН);
 Национальный исследовательский университет Информационных технологий, механики и оптики (НИУ ИТМО)</v>
       </c>
     </row>
@@ -39049,7 +39049,7 @@
       </c>
       <c r="N429" s="31" t="str">
         <f>INDEX(Авторы!C:C,MATCH(G429,Авторы!A:A,0))</f>
-        <v>Санкт-Петербургский институт информатики и автоматизации Российской академии наук (СПИИРАН),
+        <v>Санкт-Петербургский институт информатики и автоматизации Российской академии наук (СПИИРАН);
 Национальный исследовательский университет Информационных технологий, механики и оптики (НИУ ИТМО)</v>
       </c>
     </row>
@@ -39095,7 +39095,7 @@
       <c r="M430" s="7"/>
       <c r="N430" s="31" t="str">
         <f>INDEX(Авторы!C:C,MATCH(G430,Авторы!A:A,0))</f>
-        <v>Санкт-Петербургский институт информатики и автоматизации Российской академии наук (СПИИРАН),
+        <v>Санкт-Петербургский институт информатики и автоматизации Российской академии наук (СПИИРАН);
 Национальный исследовательский университет Информационных технологий, механики и оптики (НИУ ИТМО)</v>
       </c>
     </row>
@@ -39141,7 +39141,7 @@
       <c r="M431" s="7"/>
       <c r="N431" s="31" t="str">
         <f>INDEX(Авторы!C:C,MATCH(G431,Авторы!A:A,0))</f>
-        <v>Санкт-Петербургский институт информатики и автоматизации Российской академии наук (СПИИРАН),
+        <v>Санкт-Петербургский институт информатики и автоматизации Российской академии наук (СПИИРАН);
 Национальный исследовательский университет Информационных технологий, механики и оптики (НИУ ИТМО)</v>
       </c>
     </row>
@@ -39187,7 +39187,7 @@
       <c r="M432" s="7"/>
       <c r="N432" s="31" t="str">
         <f>INDEX(Авторы!C:C,MATCH(G432,Авторы!A:A,0))</f>
-        <v>Санкт-Петербургский институт информатики и автоматизации Российской академии наук (СПИИРАН),
+        <v>Санкт-Петербургский институт информатики и автоматизации Российской академии наук (СПИИРАН);
 Национальный исследовательский университет Информационных технологий, механики и оптики (НИУ ИТМО)</v>
       </c>
     </row>
@@ -39233,7 +39233,7 @@
       <c r="M433" s="7"/>
       <c r="N433" s="31" t="str">
         <f>INDEX(Авторы!C:C,MATCH(G433,Авторы!A:A,0))</f>
-        <v>Санкт-Петербургский институт информатики и автоматизации Российской академии наук (СПИИРАН),
+        <v>Санкт-Петербургский институт информатики и автоматизации Российской академии наук (СПИИРАН);
 Национальный исследовательский университет Информационных технологий, механики и оптики (НИУ ИТМО)</v>
       </c>
     </row>
@@ -39279,7 +39279,7 @@
       <c r="M434" s="7"/>
       <c r="N434" s="31" t="str">
         <f>INDEX(Авторы!C:C,MATCH(G434,Авторы!A:A,0))</f>
-        <v>Санкт-Петербургский институт информатики и автоматизации Российской академии наук (СПИИРАН),
+        <v>Санкт-Петербургский институт информатики и автоматизации Российской академии наук (СПИИРАН);
 Национальный исследовательский университет Информационных технологий, механики и оптики (НИУ ИТМО)</v>
       </c>
     </row>
@@ -39325,7 +39325,7 @@
       <c r="M435" s="7"/>
       <c r="N435" s="31" t="str">
         <f>INDEX(Авторы!C:C,MATCH(G435,Авторы!A:A,0))</f>
-        <v>Санкт-Петербургский институт информатики и автоматизации Российской академии наук (СПИИРАН),
+        <v>Санкт-Петербургский институт информатики и автоматизации Российской академии наук (СПИИРАН);
 Национальный исследовательский университет Информационных технологий, механики и оптики (НИУ ИТМО)</v>
       </c>
     </row>
@@ -39371,7 +39371,7 @@
       <c r="M436" s="7"/>
       <c r="N436" s="31" t="str">
         <f>INDEX(Авторы!C:C,MATCH(G436,Авторы!A:A,0))</f>
-        <v>Санкт-Петербургский институт информатики и автоматизации Российской академии наук (СПИИРАН),
+        <v>Санкт-Петербургский институт информатики и автоматизации Российской академии наук (СПИИРАН);
 Национальный исследовательский университет Информационных технологий, механики и оптики (НИУ ИТМО)</v>
       </c>
     </row>
@@ -39417,7 +39417,7 @@
       <c r="M437" s="7"/>
       <c r="N437" s="31" t="str">
         <f>INDEX(Авторы!C:C,MATCH(G437,Авторы!A:A,0))</f>
-        <v>Санкт-Петербургский институт информатики и автоматизации Российской академии наук (СПИИРАН),
+        <v>Санкт-Петербургский институт информатики и автоматизации Российской академии наук (СПИИРАН);
 Национальный исследовательский университет Информационных технологий, механики и оптики (НИУ ИТМО)</v>
       </c>
     </row>
@@ -39463,7 +39463,7 @@
       <c r="M438" s="7"/>
       <c r="N438" s="31" t="str">
         <f>INDEX(Авторы!C:C,MATCH(G438,Авторы!A:A,0))</f>
-        <v>Санкт-Петербургский институт информатики и автоматизации Российской академии наук (СПИИРАН),
+        <v>Санкт-Петербургский институт информатики и автоматизации Российской академии наук (СПИИРАН);
 Национальный исследовательский университет Информационных технологий, механики и оптики (НИУ ИТМО)</v>
       </c>
     </row>
@@ -39509,7 +39509,7 @@
       <c r="M439" s="7"/>
       <c r="N439" s="31" t="str">
         <f>INDEX(Авторы!C:C,MATCH(G439,Авторы!A:A,0))</f>
-        <v>Санкт-Петербургский институт информатики и автоматизации Российской академии наук (СПИИРАН),
+        <v>Санкт-Петербургский институт информатики и автоматизации Российской академии наук (СПИИРАН);
 Национальный исследовательский университет Информационных технологий, механики и оптики (НИУ ИТМО)</v>
       </c>
     </row>
@@ -39555,7 +39555,7 @@
       <c r="M440" s="7"/>
       <c r="N440" s="31" t="str">
         <f>INDEX(Авторы!C:C,MATCH(G440,Авторы!A:A,0))</f>
-        <v>Санкт-Петербургский институт информатики и автоматизации Российской академии наук (СПИИРАН),
+        <v>Санкт-Петербургский институт информатики и автоматизации Российской академии наук (СПИИРАН);
 Национальный исследовательский университет Информационных технологий, механики и оптики (НИУ ИТМО)</v>
       </c>
     </row>
@@ -39601,7 +39601,7 @@
       <c r="M441" s="7"/>
       <c r="N441" s="31" t="str">
         <f>INDEX(Авторы!C:C,MATCH(G441,Авторы!A:A,0))</f>
-        <v>Санкт-Петербургский институт информатики и автоматизации Российской академии наук (СПИИРАН),
+        <v>Санкт-Петербургский институт информатики и автоматизации Российской академии наук (СПИИРАН);
 Национальный исследовательский университет Информационных технологий, механики и оптики (НИУ ИТМО)</v>
       </c>
     </row>
@@ -39649,7 +39649,7 @@
       </c>
       <c r="N442" s="31" t="str">
         <f>INDEX(Авторы!C:C,MATCH(G442,Авторы!A:A,0))</f>
-        <v>Санкт-Петербургский институт информатики и автоматизации Российской академии наук (СПИИРАН),
+        <v>Санкт-Петербургский институт информатики и автоматизации Российской академии наук (СПИИРАН);
 Национальный исследовательский университет Информационных технологий, механики и оптики (НИУ ИТМО)</v>
       </c>
     </row>
@@ -39697,7 +39697,7 @@
       </c>
       <c r="N443" s="31" t="str">
         <f>INDEX(Авторы!C:C,MATCH(G443,Авторы!A:A,0))</f>
-        <v>Санкт-Петербургский институт информатики и автоматизации Российской академии наук (СПИИРАН),
+        <v>Санкт-Петербургский институт информатики и автоматизации Российской академии наук (СПИИРАН);
 Национальный исследовательский университет Информационных технологий, механики и оптики (НИУ ИТМО)</v>
       </c>
     </row>
@@ -39743,7 +39743,7 @@
       <c r="M444" s="7"/>
       <c r="N444" s="31" t="str">
         <f>INDEX(Авторы!C:C,MATCH(G444,Авторы!A:A,0))</f>
-        <v>Санкт-Петербургский институт информатики и автоматизации Российской академии наук (СПИИРАН),
+        <v>Санкт-Петербургский институт информатики и автоматизации Российской академии наук (СПИИРАН);
 Национальный исследовательский университет Информационных технологий, механики и оптики (НИУ ИТМО)</v>
       </c>
     </row>
@@ -39789,7 +39789,7 @@
       <c r="M445" s="7"/>
       <c r="N445" s="31" t="str">
         <f>INDEX(Авторы!C:C,MATCH(G445,Авторы!A:A,0))</f>
-        <v>Санкт-Петербургский институт информатики и автоматизации Российской академии наук (СПИИРАН),
+        <v>Санкт-Петербургский институт информатики и автоматизации Российской академии наук (СПИИРАН);
 Национальный исследовательский университет Информационных технологий, механики и оптики (НИУ ИТМО)</v>
       </c>
     </row>
@@ -39835,7 +39835,7 @@
       <c r="M446" s="7"/>
       <c r="N446" s="31" t="str">
         <f>INDEX(Авторы!C:C,MATCH(G446,Авторы!A:A,0))</f>
-        <v>Санкт-Петербургский институт информатики и автоматизации Российской академии наук (СПИИРАН),
+        <v>Санкт-Петербургский институт информатики и автоматизации Российской академии наук (СПИИРАН);
 Национальный исследовательский университет Информационных технологий, механики и оптики (НИУ ИТМО)</v>
       </c>
     </row>
@@ -39881,7 +39881,7 @@
       <c r="M447" s="7"/>
       <c r="N447" s="31" t="str">
         <f>INDEX(Авторы!C:C,MATCH(G447,Авторы!A:A,0))</f>
-        <v>Санкт-Петербургский институт информатики и автоматизации Российской академии наук (СПИИРАН),
+        <v>Санкт-Петербургский институт информатики и автоматизации Российской академии наук (СПИИРАН);
 Национальный исследовательский университет Информационных технологий, механики и оптики (НИУ ИТМО)</v>
       </c>
     </row>
@@ -39927,7 +39927,7 @@
       <c r="M448" s="7"/>
       <c r="N448" s="31" t="str">
         <f>INDEX(Авторы!C:C,MATCH(G448,Авторы!A:A,0))</f>
-        <v>Санкт-Петербургский институт информатики и автоматизации Российской академии наук (СПИИРАН),
+        <v>Санкт-Петербургский институт информатики и автоматизации Российской академии наук (СПИИРАН);
 Национальный исследовательский университет Информационных технологий, механики и оптики (НИУ ИТМО)</v>
       </c>
     </row>
@@ -39973,7 +39973,7 @@
       <c r="M449" s="7"/>
       <c r="N449" s="31" t="str">
         <f>INDEX(Авторы!C:C,MATCH(G449,Авторы!A:A,0))</f>
-        <v>Санкт-Петербургский институт информатики и автоматизации Российской академии наук (СПИИРАН),
+        <v>Санкт-Петербургский институт информатики и автоматизации Российской академии наук (СПИИРАН);
 Национальный исследовательский университет Информационных технологий, механики и оптики (НИУ ИТМО)</v>
       </c>
     </row>
@@ -40019,7 +40019,7 @@
       <c r="M450" s="7"/>
       <c r="N450" s="31" t="str">
         <f>INDEX(Авторы!C:C,MATCH(G450,Авторы!A:A,0))</f>
-        <v>Санкт-Петербургский институт информатики и автоматизации Российской академии наук (СПИИРАН),
+        <v>Санкт-Петербургский институт информатики и автоматизации Российской академии наук (СПИИРАН);
 Национальный исследовательский университет Информационных технологий, механики и оптики (НИУ ИТМО)</v>
       </c>
     </row>
@@ -40065,7 +40065,7 @@
       <c r="M451" s="7"/>
       <c r="N451" s="31" t="str">
         <f>INDEX(Авторы!C:C,MATCH(G451,Авторы!A:A,0))</f>
-        <v>Санкт-Петербургский институт информатики и автоматизации Российской академии наук (СПИИРАН),
+        <v>Санкт-Петербургский институт информатики и автоматизации Российской академии наук (СПИИРАН);
 Национальный исследовательский университет Информационных технологий, механики и оптики (НИУ ИТМО)</v>
       </c>
     </row>
@@ -40111,7 +40111,7 @@
       <c r="M452" s="7"/>
       <c r="N452" s="31" t="str">
         <f>INDEX(Авторы!C:C,MATCH(G452,Авторы!A:A,0))</f>
-        <v>Санкт-Петербургский институт информатики и автоматизации Российской академии наук (СПИИРАН),
+        <v>Санкт-Петербургский институт информатики и автоматизации Российской академии наук (СПИИРАН);
 Национальный исследовательский университет Информационных технологий, механики и оптики (НИУ ИТМО)</v>
       </c>
     </row>
@@ -40157,7 +40157,7 @@
       <c r="M453" s="7"/>
       <c r="N453" s="31" t="str">
         <f>INDEX(Авторы!C:C,MATCH(G453,Авторы!A:A,0))</f>
-        <v>Санкт-Петербургский институт информатики и автоматизации Российской академии наук (СПИИРАН),
+        <v>Санкт-Петербургский институт информатики и автоматизации Российской академии наук (СПИИРАН);
 Национальный исследовательский университет Информационных технологий, механики и оптики (НИУ ИТМО)</v>
       </c>
     </row>
@@ -40203,7 +40203,7 @@
       <c r="M454" s="7"/>
       <c r="N454" s="31" t="str">
         <f>INDEX(Авторы!C:C,MATCH(G454,Авторы!A:A,0))</f>
-        <v>Санкт-Петербургский институт информатики и автоматизации Российской академии наук (СПИИРАН),
+        <v>Санкт-Петербургский институт информатики и автоматизации Российской академии наук (СПИИРАН);
 Национальный исследовательский университет Информационных технологий, механики и оптики (НИУ ИТМО)</v>
       </c>
     </row>
@@ -40251,7 +40251,7 @@
       </c>
       <c r="N455" s="31" t="str">
         <f>INDEX(Авторы!C:C,MATCH(G455,Авторы!A:A,0))</f>
-        <v>Санкт-Петербургский институт информатики и автоматизации Российской академии наук (СПИИРАН),
+        <v>Санкт-Петербургский институт информатики и автоматизации Российской академии наук (СПИИРАН);
 Национальный исследовательский университет Информационных технологий, механики и оптики (НИУ ИТМО)</v>
       </c>
     </row>
@@ -40301,7 +40301,7 @@
       </c>
       <c r="N456" s="31" t="str">
         <f>INDEX(Авторы!C:C,MATCH(G456,Авторы!A:A,0))</f>
-        <v>Санкт-Петербургский институт информатики и автоматизации Российской академии наук (СПИИРАН),
+        <v>Санкт-Петербургский институт информатики и автоматизации Российской академии наук (СПИИРАН);
 Национальный исследовательский университет Информационных технологий, механики и оптики (НИУ ИТМО)</v>
       </c>
     </row>
@@ -40349,7 +40349,7 @@
       </c>
       <c r="N457" s="31" t="str">
         <f>INDEX(Авторы!C:C,MATCH(G457,Авторы!A:A,0))</f>
-        <v>Санкт-Петербургский институт информатики и автоматизации Российской академии наук (СПИИРАН),
+        <v>Санкт-Петербургский институт информатики и автоматизации Российской академии наук (СПИИРАН);
 Национальный исследовательский университет Информационных технологий, механики и оптики (НИУ ИТМО)</v>
       </c>
     </row>
@@ -40399,7 +40399,7 @@
       </c>
       <c r="N458" s="31" t="str">
         <f>INDEX(Авторы!C:C,MATCH(G458,Авторы!A:A,0))</f>
-        <v>Санкт-Петербургский институт информатики и автоматизации Российской академии наук (СПИИРАН),
+        <v>Санкт-Петербургский институт информатики и автоматизации Российской академии наук (СПИИРАН);
 Национальный исследовательский университет Информационных технологий, механики и оптики (НИУ ИТМО)</v>
       </c>
     </row>
@@ -40445,7 +40445,7 @@
       </c>
       <c r="N459" s="31" t="str">
         <f>INDEX(Авторы!C:C,MATCH(G459,Авторы!A:A,0))</f>
-        <v>Санкт-Петербургский институт информатики и автоматизации Российской академии наук (СПИИРАН),
+        <v>Санкт-Петербургский институт информатики и автоматизации Российской академии наук (СПИИРАН);
 Национальный исследовательский университет Информационных технологий, механики и оптики (НИУ ИТМО)</v>
       </c>
     </row>
@@ -40491,7 +40491,7 @@
       <c r="M460" s="7"/>
       <c r="N460" s="31" t="str">
         <f>INDEX(Авторы!C:C,MATCH(G460,Авторы!A:A,0))</f>
-        <v>Санкт-Петербургский институт информатики и автоматизации Российской академии наук (СПИИРАН),
+        <v>Санкт-Петербургский институт информатики и автоматизации Российской академии наук (СПИИРАН);
 Национальный исследовательский университет Информационных технологий, механики и оптики (НИУ ИТМО)</v>
       </c>
     </row>
@@ -40539,7 +40539,7 @@
       </c>
       <c r="N461" s="31" t="str">
         <f>INDEX(Авторы!C:C,MATCH(G461,Авторы!A:A,0))</f>
-        <v>Санкт-Петербургский институт информатики и автоматизации Российской академии наук (СПИИРАН),
+        <v>Санкт-Петербургский институт информатики и автоматизации Российской академии наук (СПИИРАН);
 Национальный исследовательский университет Информационных технологий, механики и оптики (НИУ ИТМО)</v>
       </c>
     </row>
@@ -40585,7 +40585,7 @@
       <c r="M462" s="7"/>
       <c r="N462" s="31" t="str">
         <f>INDEX(Авторы!C:C,MATCH(G462,Авторы!A:A,0))</f>
-        <v>Санкт-Петербургский институт информатики и автоматизации Российской академии наук (СПИИРАН),
+        <v>Санкт-Петербургский институт информатики и автоматизации Российской академии наук (СПИИРАН);
 Национальный исследовательский университет Информационных технологий, механики и оптики (НИУ ИТМО)</v>
       </c>
     </row>
@@ -40631,7 +40631,7 @@
       <c r="M463" s="7"/>
       <c r="N463" s="31" t="str">
         <f>INDEX(Авторы!C:C,MATCH(G463,Авторы!A:A,0))</f>
-        <v>Санкт-Петербургский институт информатики и автоматизации Российской академии наук (СПИИРАН),
+        <v>Санкт-Петербургский институт информатики и автоматизации Российской академии наук (СПИИРАН);
 Национальный исследовательский университет Информационных технологий, механики и оптики (НИУ ИТМО)</v>
       </c>
     </row>
@@ -40677,7 +40677,7 @@
       <c r="M464" s="7"/>
       <c r="N464" s="31" t="str">
         <f>INDEX(Авторы!C:C,MATCH(G464,Авторы!A:A,0))</f>
-        <v>Санкт-Петербургский институт информатики и автоматизации Российской академии наук (СПИИРАН),
+        <v>Санкт-Петербургский институт информатики и автоматизации Российской академии наук (СПИИРАН);
 Национальный исследовательский университет Информационных технологий, механики и оптики (НИУ ИТМО)</v>
       </c>
     </row>
@@ -40723,7 +40723,7 @@
       <c r="M465" s="7"/>
       <c r="N465" s="31" t="str">
         <f>INDEX(Авторы!C:C,MATCH(G465,Авторы!A:A,0))</f>
-        <v>Санкт-Петербургский институт информатики и автоматизации Российской академии наук (СПИИРАН),
+        <v>Санкт-Петербургский институт информатики и автоматизации Российской академии наук (СПИИРАН);
 Национальный исследовательский университет Информационных технологий, механики и оптики (НИУ ИТМО)</v>
       </c>
     </row>
@@ -40769,7 +40769,7 @@
       <c r="M466" s="7"/>
       <c r="N466" s="31" t="str">
         <f>INDEX(Авторы!C:C,MATCH(G466,Авторы!A:A,0))</f>
-        <v>Санкт-Петербургский институт информатики и автоматизации Российской академии наук (СПИИРАН),
+        <v>Санкт-Петербургский институт информатики и автоматизации Российской академии наук (СПИИРАН);
 Национальный исследовательский университет Информационных технологий, механики и оптики (НИУ ИТМО)</v>
       </c>
     </row>
@@ -40815,7 +40815,7 @@
       <c r="M467" s="7"/>
       <c r="N467" s="31" t="str">
         <f>INDEX(Авторы!C:C,MATCH(G467,Авторы!A:A,0))</f>
-        <v>Санкт-Петербургский институт информатики и автоматизации Российской академии наук (СПИИРАН),
+        <v>Санкт-Петербургский институт информатики и автоматизации Российской академии наук (СПИИРАН);
 Национальный исследовательский университет Информационных технологий, механики и оптики (НИУ ИТМО)</v>
       </c>
     </row>
@@ -40863,7 +40863,7 @@
       <c r="M468" s="7"/>
       <c r="N468" s="31" t="str">
         <f>INDEX(Авторы!C:C,MATCH(G468,Авторы!A:A,0))</f>
-        <v>Санкт-Петербургский институт информатики и автоматизации Российской академии наук (СПИИРАН),
+        <v>Санкт-Петербургский институт информатики и автоматизации Российской академии наук (СПИИРАН);
 Национальный исследовательский университет Информационных технологий, механики и оптики (НИУ ИТМО)</v>
       </c>
     </row>
@@ -40909,7 +40909,7 @@
       <c r="M469" s="7"/>
       <c r="N469" s="31" t="str">
         <f>INDEX(Авторы!C:C,MATCH(G469,Авторы!A:A,0))</f>
-        <v>Санкт-Петербургский институт информатики и автоматизации Российской академии наук (СПИИРАН),
+        <v>Санкт-Петербургский институт информатики и автоматизации Российской академии наук (СПИИРАН);
 Национальный исследовательский университет Информационных технологий, механики и оптики (НИУ ИТМО)</v>
       </c>
     </row>
@@ -40955,7 +40955,7 @@
       <c r="M470" s="7"/>
       <c r="N470" s="31" t="str">
         <f>INDEX(Авторы!C:C,MATCH(G470,Авторы!A:A,0))</f>
-        <v>Санкт-Петербургский институт информатики и автоматизации Российской академии наук (СПИИРАН),
+        <v>Санкт-Петербургский институт информатики и автоматизации Российской академии наук (СПИИРАН);
 Национальный исследовательский университет Информационных технологий, механики и оптики (НИУ ИТМО)</v>
       </c>
     </row>
@@ -41001,7 +41001,7 @@
       <c r="M471" s="7"/>
       <c r="N471" s="31" t="str">
         <f>INDEX(Авторы!C:C,MATCH(G471,Авторы!A:A,0))</f>
-        <v>Санкт-Петербургский институт информатики и автоматизации Российской академии наук (СПИИРАН),
+        <v>Санкт-Петербургский институт информатики и автоматизации Российской академии наук (СПИИРАН);
 Национальный исследовательский университет Информационных технологий, механики и оптики (НИУ ИТМО)</v>
       </c>
     </row>
@@ -41047,7 +41047,7 @@
       <c r="M472" s="7"/>
       <c r="N472" s="31" t="str">
         <f>INDEX(Авторы!C:C,MATCH(G472,Авторы!A:A,0))</f>
-        <v>Санкт-Петербургский институт информатики и автоматизации Российской академии наук (СПИИРАН),
+        <v>Санкт-Петербургский институт информатики и автоматизации Российской академии наук (СПИИРАН);
 Национальный исследовательский университет Информационных технологий, механики и оптики (НИУ ИТМО)</v>
       </c>
     </row>
@@ -41093,7 +41093,7 @@
       <c r="M473" s="7"/>
       <c r="N473" s="31" t="str">
         <f>INDEX(Авторы!C:C,MATCH(G473,Авторы!A:A,0))</f>
-        <v>Санкт-Петербургский институт информатики и автоматизации Российской академии наук (СПИИРАН),
+        <v>Санкт-Петербургский институт информатики и автоматизации Российской академии наук (СПИИРАН);
 Национальный исследовательский университет Информационных технологий, механики и оптики (НИУ ИТМО)</v>
       </c>
     </row>
@@ -41139,7 +41139,7 @@
       <c r="M474" s="7"/>
       <c r="N474" s="31" t="str">
         <f>INDEX(Авторы!C:C,MATCH(G474,Авторы!A:A,0))</f>
-        <v>Санкт-Петербургский институт информатики и автоматизации Российской академии наук (СПИИРАН),
+        <v>Санкт-Петербургский институт информатики и автоматизации Российской академии наук (СПИИРАН);
 Национальный исследовательский университет Информационных технологий, механики и оптики (НИУ ИТМО)</v>
       </c>
     </row>
@@ -41185,7 +41185,7 @@
       <c r="M475" s="7"/>
       <c r="N475" s="31" t="str">
         <f>INDEX(Авторы!C:C,MATCH(G475,Авторы!A:A,0))</f>
-        <v>Санкт-Петербургский институт информатики и автоматизации Российской академии наук (СПИИРАН),
+        <v>Санкт-Петербургский институт информатики и автоматизации Российской академии наук (СПИИРАН);
 Национальный исследовательский университет Информационных технологий, механики и оптики (НИУ ИТМО)</v>
       </c>
     </row>
@@ -41231,7 +41231,7 @@
       <c r="M476" s="7"/>
       <c r="N476" s="31" t="str">
         <f>INDEX(Авторы!C:C,MATCH(G476,Авторы!A:A,0))</f>
-        <v>Санкт-Петербургский институт информатики и автоматизации Российской академии наук (СПИИРАН),
+        <v>Санкт-Петербургский институт информатики и автоматизации Российской академии наук (СПИИРАН);
 Национальный исследовательский университет Информационных технологий, механики и оптики (НИУ ИТМО)</v>
       </c>
     </row>
@@ -41277,7 +41277,7 @@
       <c r="M477" s="7"/>
       <c r="N477" s="31" t="str">
         <f>INDEX(Авторы!C:C,MATCH(G477,Авторы!A:A,0))</f>
-        <v>Санкт-Петербургский институт информатики и автоматизации Российской академии наук (СПИИРАН),
+        <v>Санкт-Петербургский институт информатики и автоматизации Российской академии наук (СПИИРАН);
 Национальный исследовательский университет Информационных технологий, механики и оптики (НИУ ИТМО)</v>
       </c>
     </row>
@@ -41323,7 +41323,7 @@
       <c r="M478" s="7"/>
       <c r="N478" s="31" t="str">
         <f>INDEX(Авторы!C:C,MATCH(G478,Авторы!A:A,0))</f>
-        <v>Санкт-Петербургский институт информатики и автоматизации Российской академии наук (СПИИРАН),
+        <v>Санкт-Петербургский институт информатики и автоматизации Российской академии наук (СПИИРАН);
 Национальный исследовательский университет Информационных технологий, механики и оптики (НИУ ИТМО)</v>
       </c>
     </row>
@@ -41369,7 +41369,7 @@
       <c r="M479" s="7"/>
       <c r="N479" s="31" t="str">
         <f>INDEX(Авторы!C:C,MATCH(G479,Авторы!A:A,0))</f>
-        <v>Санкт-Петербургский институт информатики и автоматизации Российской академии наук (СПИИРАН),
+        <v>Санкт-Петербургский институт информатики и автоматизации Российской академии наук (СПИИРАН);
 Национальный исследовательский университет Информационных технологий, механики и оптики (НИУ ИТМО)</v>
       </c>
     </row>
@@ -41417,7 +41417,7 @@
       <c r="M480" s="7"/>
       <c r="N480" s="31" t="str">
         <f>INDEX(Авторы!C:C,MATCH(G480,Авторы!A:A,0))</f>
-        <v>Санкт-Петербургский институт информатики и автоматизации Российской академии наук (СПИИРАН),
+        <v>Санкт-Петербургский институт информатики и автоматизации Российской академии наук (СПИИРАН);
 Национальный исследовательский университет Информационных технологий, механики и оптики (НИУ ИТМО)</v>
       </c>
     </row>
@@ -41465,7 +41465,7 @@
       <c r="M481" s="7"/>
       <c r="N481" s="31" t="str">
         <f>INDEX(Авторы!C:C,MATCH(G481,Авторы!A:A,0))</f>
-        <v>Санкт-Петербургский институт информатики и автоматизации Российской академии наук (СПИИРАН),
+        <v>Санкт-Петербургский институт информатики и автоматизации Российской академии наук (СПИИРАН);
 Национальный исследовательский университет Информационных технологий, механики и оптики (НИУ ИТМО)</v>
       </c>
     </row>
@@ -41511,7 +41511,7 @@
       <c r="M482" s="7"/>
       <c r="N482" s="31" t="str">
         <f>INDEX(Авторы!C:C,MATCH(G482,Авторы!A:A,0))</f>
-        <v>Санкт-Петербургский институт информатики и автоматизации Российской академии наук (СПИИРАН),
+        <v>Санкт-Петербургский институт информатики и автоматизации Российской академии наук (СПИИРАН);
 Национальный исследовательский университет Информационных технологий, механики и оптики (НИУ ИТМО)</v>
       </c>
     </row>
@@ -41557,7 +41557,7 @@
       <c r="M483" s="7"/>
       <c r="N483" s="31" t="str">
         <f>INDEX(Авторы!C:C,MATCH(G483,Авторы!A:A,0))</f>
-        <v>Санкт-Петербургский институт информатики и автоматизации Российской академии наук (СПИИРАН),
+        <v>Санкт-Петербургский институт информатики и автоматизации Российской академии наук (СПИИРАН);
 Национальный исследовательский университет Информационных технологий, механики и оптики (НИУ ИТМО)</v>
       </c>
     </row>
@@ -41603,7 +41603,7 @@
       <c r="M484" s="7"/>
       <c r="N484" s="31" t="str">
         <f>INDEX(Авторы!C:C,MATCH(G484,Авторы!A:A,0))</f>
-        <v>Санкт-Петербургский институт информатики и автоматизации Российской академии наук (СПИИРАН),
+        <v>Санкт-Петербургский институт информатики и автоматизации Российской академии наук (СПИИРАН);
 Национальный исследовательский университет Информационных технологий, механики и оптики (НИУ ИТМО)</v>
       </c>
     </row>
@@ -41649,7 +41649,7 @@
       <c r="M485" s="7"/>
       <c r="N485" s="31" t="str">
         <f>INDEX(Авторы!C:C,MATCH(G485,Авторы!A:A,0))</f>
-        <v>Санкт-Петербургский институт информатики и автоматизации Российской академии наук (СПИИРАН),
+        <v>Санкт-Петербургский институт информатики и автоматизации Российской академии наук (СПИИРАН);
 Национальный исследовательский университет Информационных технологий, механики и оптики (НИУ ИТМО)</v>
       </c>
     </row>
@@ -41695,7 +41695,7 @@
       <c r="M486" s="7"/>
       <c r="N486" s="31" t="str">
         <f>INDEX(Авторы!C:C,MATCH(G486,Авторы!A:A,0))</f>
-        <v>Санкт-Петербургский институт информатики и автоматизации Российской академии наук (СПИИРАН),
+        <v>Санкт-Петербургский институт информатики и автоматизации Российской академии наук (СПИИРАН);
 Национальный исследовательский университет Информационных технологий, механики и оптики (НИУ ИТМО)</v>
       </c>
     </row>
@@ -41741,7 +41741,7 @@
       <c r="M487" s="7"/>
       <c r="N487" s="31" t="str">
         <f>INDEX(Авторы!C:C,MATCH(G487,Авторы!A:A,0))</f>
-        <v>Санкт-Петербургский институт информатики и автоматизации Российской академии наук (СПИИРАН),
+        <v>Санкт-Петербургский институт информатики и автоматизации Российской академии наук (СПИИРАН);
 Национальный исследовательский университет Информационных технологий, механики и оптики (НИУ ИТМО)</v>
       </c>
     </row>
@@ -41787,7 +41787,7 @@
       <c r="M488" s="7"/>
       <c r="N488" s="31" t="str">
         <f>INDEX(Авторы!C:C,MATCH(G488,Авторы!A:A,0))</f>
-        <v>Санкт-Петербургский институт информатики и автоматизации Российской академии наук (СПИИРАН),
+        <v>Санкт-Петербургский институт информатики и автоматизации Российской академии наук (СПИИРАН);
 Национальный исследовательский университет Информационных технологий, механики и оптики (НИУ ИТМО)</v>
       </c>
     </row>
@@ -41833,7 +41833,7 @@
       <c r="M489" s="7"/>
       <c r="N489" s="31" t="str">
         <f>INDEX(Авторы!C:C,MATCH(G489,Авторы!A:A,0))</f>
-        <v>Санкт-Петербургский институт информатики и автоматизации Российской академии наук (СПИИРАН),
+        <v>Санкт-Петербургский институт информатики и автоматизации Российской академии наук (СПИИРАН);
 Национальный исследовательский университет Информационных технологий, механики и оптики (НИУ ИТМО)</v>
       </c>
     </row>
@@ -41879,7 +41879,7 @@
       <c r="M490" s="7"/>
       <c r="N490" s="31" t="str">
         <f>INDEX(Авторы!C:C,MATCH(G490,Авторы!A:A,0))</f>
-        <v>Санкт-Петербургский институт информатики и автоматизации Российской академии наук (СПИИРАН),
+        <v>Санкт-Петербургский институт информатики и автоматизации Российской академии наук (СПИИРАН);
 Национальный исследовательский университет Информационных технологий, механики и оптики (НИУ ИТМО)</v>
       </c>
     </row>
@@ -41925,7 +41925,7 @@
       <c r="M491" s="7"/>
       <c r="N491" s="31" t="str">
         <f>INDEX(Авторы!C:C,MATCH(G491,Авторы!A:A,0))</f>
-        <v>Санкт-Петербургский институт информатики и автоматизации Российской академии наук (СПИИРАН),
+        <v>Санкт-Петербургский институт информатики и автоматизации Российской академии наук (СПИИРАН);
 Национальный исследовательский университет Информационных технологий, механики и оптики (НИУ ИТМО)</v>
       </c>
     </row>
@@ -41971,7 +41971,7 @@
       <c r="M492" s="7"/>
       <c r="N492" s="31" t="str">
         <f>INDEX(Авторы!C:C,MATCH(G492,Авторы!A:A,0))</f>
-        <v>Санкт-Петербургский институт информатики и автоматизации Российской академии наук (СПИИРАН),
+        <v>Санкт-Петербургский институт информатики и автоматизации Российской академии наук (СПИИРАН);
 Национальный исследовательский университет Информационных технологий, механики и оптики (НИУ ИТМО)</v>
       </c>
     </row>
@@ -42017,7 +42017,7 @@
       <c r="M493" s="7"/>
       <c r="N493" s="31" t="str">
         <f>INDEX(Авторы!C:C,MATCH(G493,Авторы!A:A,0))</f>
-        <v>Санкт-Петербургский институт информатики и автоматизации Российской академии наук (СПИИРАН),
+        <v>Санкт-Петербургский институт информатики и автоматизации Российской академии наук (СПИИРАН);
 Национальный исследовательский университет Информационных технологий, механики и оптики (НИУ ИТМО)</v>
       </c>
     </row>
@@ -42063,7 +42063,7 @@
       <c r="M494" s="7"/>
       <c r="N494" s="31" t="str">
         <f>INDEX(Авторы!C:C,MATCH(G494,Авторы!A:A,0))</f>
-        <v>Санкт-Петербургский институт информатики и автоматизации Российской академии наук (СПИИРАН),
+        <v>Санкт-Петербургский институт информатики и автоматизации Российской академии наук (СПИИРАН);
 Национальный исследовательский университет Информационных технологий, механики и оптики (НИУ ИТМО)</v>
       </c>
     </row>
@@ -42111,7 +42111,7 @@
       <c r="M495" s="7"/>
       <c r="N495" s="31" t="str">
         <f>INDEX(Авторы!C:C,MATCH(G495,Авторы!A:A,0))</f>
-        <v>Санкт-Петербургский институт информатики и автоматизации Российской академии наук (СПИИРАН),
+        <v>Санкт-Петербургский институт информатики и автоматизации Российской академии наук (СПИИРАН);
 Национальный исследовательский университет Информационных технологий, механики и оптики (НИУ ИТМО)</v>
       </c>
     </row>
@@ -42159,7 +42159,7 @@
       <c r="M496" s="7"/>
       <c r="N496" s="31" t="str">
         <f>INDEX(Авторы!C:C,MATCH(G496,Авторы!A:A,0))</f>
-        <v>Санкт-Петербургский институт информатики и автоматизации Российской академии наук (СПИИРАН),
+        <v>Санкт-Петербургский институт информатики и автоматизации Российской академии наук (СПИИРАН);
 Национальный исследовательский университет Информационных технологий, механики и оптики (НИУ ИТМО)</v>
       </c>
     </row>
@@ -42205,7 +42205,7 @@
       <c r="M497" s="7"/>
       <c r="N497" s="31" t="str">
         <f>INDEX(Авторы!C:C,MATCH(G497,Авторы!A:A,0))</f>
-        <v>Санкт-Петербургский институт информатики и автоматизации Российской академии наук (СПИИРАН),
+        <v>Санкт-Петербургский институт информатики и автоматизации Российской академии наук (СПИИРАН);
 Национальный исследовательский университет Информационных технологий, механики и оптики (НИУ ИТМО)</v>
       </c>
     </row>
@@ -42251,7 +42251,7 @@
       <c r="M498" s="7"/>
       <c r="N498" s="31" t="str">
         <f>INDEX(Авторы!C:C,MATCH(G498,Авторы!A:A,0))</f>
-        <v>Санкт-Петербургский институт информатики и автоматизации Российской академии наук (СПИИРАН),
+        <v>Санкт-Петербургский институт информатики и автоматизации Российской академии наук (СПИИРАН);
 Национальный исследовательский университет Информационных технологий, механики и оптики (НИУ ИТМО)</v>
       </c>
     </row>
@@ -42297,7 +42297,7 @@
       <c r="M499" s="7"/>
       <c r="N499" s="31" t="str">
         <f>INDEX(Авторы!C:C,MATCH(G499,Авторы!A:A,0))</f>
-        <v>Санкт-Петербургский институт информатики и автоматизации Российской академии наук (СПИИРАН),
+        <v>Санкт-Петербургский институт информатики и автоматизации Российской академии наук (СПИИРАН);
 Национальный исследовательский университет Информационных технологий, механики и оптики (НИУ ИТМО)</v>
       </c>
     </row>
@@ -42343,7 +42343,7 @@
       <c r="M500" s="7"/>
       <c r="N500" s="31" t="str">
         <f>INDEX(Авторы!C:C,MATCH(G500,Авторы!A:A,0))</f>
-        <v>Санкт-Петербургский институт информатики и автоматизации Российской академии наук (СПИИРАН),
+        <v>Санкт-Петербургский институт информатики и автоматизации Российской академии наук (СПИИРАН);
 Национальный исследовательский университет Информационных технологий, механики и оптики (НИУ ИТМО)</v>
       </c>
     </row>
@@ -42389,7 +42389,7 @@
       <c r="M501" s="7"/>
       <c r="N501" s="31" t="str">
         <f>INDEX(Авторы!C:C,MATCH(G501,Авторы!A:A,0))</f>
-        <v>Санкт-Петербургский институт информатики и автоматизации Российской академии наук (СПИИРАН),
+        <v>Санкт-Петербургский институт информатики и автоматизации Российской академии наук (СПИИРАН);
 Национальный исследовательский университет Информационных технологий, механики и оптики (НИУ ИТМО)</v>
       </c>
     </row>
@@ -42437,7 +42437,7 @@
       <c r="M502" s="7"/>
       <c r="N502" s="31" t="str">
         <f>INDEX(Авторы!C:C,MATCH(G502,Авторы!A:A,0))</f>
-        <v>Санкт-Петербургский институт информатики и автоматизации Российской академии наук (СПИИРАН),
+        <v>Санкт-Петербургский институт информатики и автоматизации Российской академии наук (СПИИРАН);
 Национальный исследовательский университет Информационных технологий, механики и оптики (НИУ ИТМО)</v>
       </c>
     </row>
@@ -42483,7 +42483,7 @@
       <c r="M503" s="7"/>
       <c r="N503" s="31" t="str">
         <f>INDEX(Авторы!C:C,MATCH(G503,Авторы!A:A,0))</f>
-        <v>Санкт-Петербургский институт информатики и автоматизации Российской академии наук (СПИИРАН),
+        <v>Санкт-Петербургский институт информатики и автоматизации Российской академии наук (СПИИРАН);
 Национальный исследовательский университет Информационных технологий, механики и оптики (НИУ ИТМО)</v>
       </c>
     </row>
@@ -42529,7 +42529,7 @@
       <c r="M504" s="7"/>
       <c r="N504" s="31" t="str">
         <f>INDEX(Авторы!C:C,MATCH(G504,Авторы!A:A,0))</f>
-        <v>Санкт-Петербургский институт информатики и автоматизации Российской академии наук (СПИИРАН),
+        <v>Санкт-Петербургский институт информатики и автоматизации Российской академии наук (СПИИРАН);
 Национальный исследовательский университет Информационных технологий, механики и оптики (НИУ ИТМО)</v>
       </c>
     </row>
@@ -42575,7 +42575,7 @@
       <c r="M505" s="7"/>
       <c r="N505" s="31" t="str">
         <f>INDEX(Авторы!C:C,MATCH(G505,Авторы!A:A,0))</f>
-        <v>Санкт-Петербургский институт информатики и автоматизации Российской академии наук (СПИИРАН),
+        <v>Санкт-Петербургский институт информатики и автоматизации Российской академии наук (СПИИРАН);
 Национальный исследовательский университет Информационных технологий, механики и оптики (НИУ ИТМО)</v>
       </c>
     </row>
@@ -42621,7 +42621,7 @@
       <c r="M506" s="7"/>
       <c r="N506" s="31" t="str">
         <f>INDEX(Авторы!C:C,MATCH(G506,Авторы!A:A,0))</f>
-        <v>Санкт-Петербургский институт информатики и автоматизации Российской академии наук (СПИИРАН),
+        <v>Санкт-Петербургский институт информатики и автоматизации Российской академии наук (СПИИРАН);
 Национальный исследовательский университет Информационных технологий, механики и оптики (НИУ ИТМО)</v>
       </c>
     </row>
@@ -42667,7 +42667,7 @@
       <c r="M507" s="7"/>
       <c r="N507" s="31" t="str">
         <f>INDEX(Авторы!C:C,MATCH(G507,Авторы!A:A,0))</f>
-        <v>Санкт-Петербургский институт информатики и автоматизации Российской академии наук (СПИИРАН),
+        <v>Санкт-Петербургский институт информатики и автоматизации Российской академии наук (СПИИРАН);
 Национальный исследовательский университет Информационных технологий, механики и оптики (НИУ ИТМО)</v>
       </c>
     </row>
@@ -42713,7 +42713,7 @@
       <c r="M508" s="7"/>
       <c r="N508" s="31" t="str">
         <f>INDEX(Авторы!C:C,MATCH(G508,Авторы!A:A,0))</f>
-        <v>Санкт-Петербургский институт информатики и автоматизации Российской академии наук (СПИИРАН),
+        <v>Санкт-Петербургский институт информатики и автоматизации Российской академии наук (СПИИРАН);
 Национальный исследовательский университет Информационных технологий, механики и оптики (НИУ ИТМО)</v>
       </c>
     </row>
@@ -42759,7 +42759,7 @@
       <c r="M509" s="7"/>
       <c r="N509" s="31" t="str">
         <f>INDEX(Авторы!C:C,MATCH(G509,Авторы!A:A,0))</f>
-        <v>Санкт-Петербургский институт информатики и автоматизации Российской академии наук (СПИИРАН),
+        <v>Санкт-Петербургский институт информатики и автоматизации Российской академии наук (СПИИРАН);
 Национальный исследовательский университет Информационных технологий, механики и оптики (НИУ ИТМО)</v>
       </c>
     </row>
@@ -42805,7 +42805,7 @@
       <c r="M510" s="7"/>
       <c r="N510" s="31" t="str">
         <f>INDEX(Авторы!C:C,MATCH(G510,Авторы!A:A,0))</f>
-        <v>Санкт-Петербургский институт информатики и автоматизации Российской академии наук (СПИИРАН),
+        <v>Санкт-Петербургский институт информатики и автоматизации Российской академии наук (СПИИРАН);
 Национальный исследовательский университет Информационных технологий, механики и оптики (НИУ ИТМО)</v>
       </c>
     </row>
@@ -42851,7 +42851,7 @@
       <c r="M511" s="7"/>
       <c r="N511" s="31" t="str">
         <f>INDEX(Авторы!C:C,MATCH(G511,Авторы!A:A,0))</f>
-        <v>Санкт-Петербургский институт информатики и автоматизации Российской академии наук (СПИИРАН),
+        <v>Санкт-Петербургский институт информатики и автоматизации Российской академии наук (СПИИРАН);
 Национальный исследовательский университет Информационных технологий, механики и оптики (НИУ ИТМО)</v>
       </c>
     </row>
@@ -42897,7 +42897,7 @@
       <c r="M512" s="7"/>
       <c r="N512" s="31" t="str">
         <f>INDEX(Авторы!C:C,MATCH(G512,Авторы!A:A,0))</f>
-        <v>Санкт-Петербургский институт информатики и автоматизации Российской академии наук (СПИИРАН),
+        <v>Санкт-Петербургский институт информатики и автоматизации Российской академии наук (СПИИРАН);
 Национальный исследовательский университет Информационных технологий, механики и оптики (НИУ ИТМО)</v>
       </c>
     </row>
@@ -42943,7 +42943,7 @@
       <c r="M513" s="7"/>
       <c r="N513" s="31" t="str">
         <f>INDEX(Авторы!C:C,MATCH(G513,Авторы!A:A,0))</f>
-        <v>Санкт-Петербургский институт информатики и автоматизации Российской академии наук (СПИИРАН),
+        <v>Санкт-Петербургский институт информатики и автоматизации Российской академии наук (СПИИРАН);
 Национальный исследовательский университет Информационных технологий, механики и оптики (НИУ ИТМО)</v>
       </c>
     </row>
@@ -42989,7 +42989,7 @@
       <c r="M514" s="7"/>
       <c r="N514" s="31" t="str">
         <f>INDEX(Авторы!C:C,MATCH(G514,Авторы!A:A,0))</f>
-        <v>Санкт-Петербургский институт информатики и автоматизации Российской академии наук (СПИИРАН),
+        <v>Санкт-Петербургский институт информатики и автоматизации Российской академии наук (СПИИРАН);
 Национальный исследовательский университет Информационных технологий, механики и оптики (НИУ ИТМО)</v>
       </c>
     </row>
@@ -43035,7 +43035,7 @@
       <c r="M515" s="7"/>
       <c r="N515" s="31" t="str">
         <f>INDEX(Авторы!C:C,MATCH(G515,Авторы!A:A,0))</f>
-        <v>Санкт-Петербургский институт информатики и автоматизации Российской академии наук (СПИИРАН),
+        <v>Санкт-Петербургский институт информатики и автоматизации Российской академии наук (СПИИРАН);
 Национальный исследовательский университет Информационных технологий, механики и оптики (НИУ ИТМО)</v>
       </c>
     </row>
@@ -43081,7 +43081,7 @@
       <c r="M516" s="7"/>
       <c r="N516" s="31" t="str">
         <f>INDEX(Авторы!C:C,MATCH(G516,Авторы!A:A,0))</f>
-        <v>Санкт-Петербургский институт информатики и автоматизации Российской академии наук (СПИИРАН),
+        <v>Санкт-Петербургский институт информатики и автоматизации Российской академии наук (СПИИРАН);
 Национальный исследовательский университет Информационных технологий, механики и оптики (НИУ ИТМО)</v>
       </c>
     </row>
@@ -43127,7 +43127,7 @@
       <c r="M517" s="7"/>
       <c r="N517" s="31" t="str">
         <f>INDEX(Авторы!C:C,MATCH(G517,Авторы!A:A,0))</f>
-        <v>Санкт-Петербургский институт информатики и автоматизации Российской академии наук (СПИИРАН),
+        <v>Санкт-Петербургский институт информатики и автоматизации Российской академии наук (СПИИРАН);
 Национальный исследовательский университет Информационных технологий, механики и оптики (НИУ ИТМО)</v>
       </c>
     </row>
@@ -43173,7 +43173,7 @@
       <c r="M518" s="7"/>
       <c r="N518" s="31" t="str">
         <f>INDEX(Авторы!C:C,MATCH(G518,Авторы!A:A,0))</f>
-        <v>Санкт-Петербургский институт информатики и автоматизации Российской академии наук (СПИИРАН),
+        <v>Санкт-Петербургский институт информатики и автоматизации Российской академии наук (СПИИРАН);
 Национальный исследовательский университет Информационных технологий, механики и оптики (НИУ ИТМО)</v>
       </c>
     </row>
@@ -43221,7 +43221,7 @@
       <c r="M519" s="7"/>
       <c r="N519" s="31" t="str">
         <f>INDEX(Авторы!C:C,MATCH(G519,Авторы!A:A,0))</f>
-        <v>Санкт-Петербургский институт информатики и автоматизации Российской академии наук (СПИИРАН),
+        <v>Санкт-Петербургский институт информатики и автоматизации Российской академии наук (СПИИРАН);
 Национальный исследовательский университет Информационных технологий, механики и оптики (НИУ ИТМО)</v>
       </c>
     </row>
@@ -43269,7 +43269,7 @@
       <c r="M520" s="7"/>
       <c r="N520" s="31" t="str">
         <f>INDEX(Авторы!C:C,MATCH(G520,Авторы!A:A,0))</f>
-        <v>Санкт-Петербургский институт информатики и автоматизации Российской академии наук (СПИИРАН),
+        <v>Санкт-Петербургский институт информатики и автоматизации Российской академии наук (СПИИРАН);
 Национальный исследовательский университет Информационных технологий, механики и оптики (НИУ ИТМО)</v>
       </c>
     </row>
@@ -43315,7 +43315,7 @@
       <c r="M521" s="7"/>
       <c r="N521" s="31" t="str">
         <f>INDEX(Авторы!C:C,MATCH(G521,Авторы!A:A,0))</f>
-        <v>Санкт-Петербургский институт информатики и автоматизации Российской академии наук (СПИИРАН),
+        <v>Санкт-Петербургский институт информатики и автоматизации Российской академии наук (СПИИРАН);
 Национальный исследовательский университет Информационных технологий, механики и оптики (НИУ ИТМО)</v>
       </c>
     </row>
@@ -43361,7 +43361,7 @@
       <c r="M522" s="7"/>
       <c r="N522" s="31" t="str">
         <f>INDEX(Авторы!C:C,MATCH(G522,Авторы!A:A,0))</f>
-        <v>Санкт-Петербургский институт информатики и автоматизации Российской академии наук (СПИИРАН),
+        <v>Санкт-Петербургский институт информатики и автоматизации Российской академии наук (СПИИРАН);
 Национальный исследовательский университет Информационных технологий, механики и оптики (НИУ ИТМО)</v>
       </c>
     </row>
@@ -43407,7 +43407,7 @@
       <c r="M523" s="7"/>
       <c r="N523" s="31" t="str">
         <f>INDEX(Авторы!C:C,MATCH(G523,Авторы!A:A,0))</f>
-        <v>Санкт-Петербургский институт информатики и автоматизации Российской академии наук (СПИИРАН),
+        <v>Санкт-Петербургский институт информатики и автоматизации Российской академии наук (СПИИРАН);
 Национальный исследовательский университет Информационных технологий, механики и оптики (НИУ ИТМО)</v>
       </c>
     </row>
@@ -43453,7 +43453,7 @@
       <c r="M524" s="7"/>
       <c r="N524" s="31" t="str">
         <f>INDEX(Авторы!C:C,MATCH(G524,Авторы!A:A,0))</f>
-        <v>Санкт-Петербургский институт информатики и автоматизации Российской академии наук (СПИИРАН),
+        <v>Санкт-Петербургский институт информатики и автоматизации Российской академии наук (СПИИРАН);
 Национальный исследовательский университет Информационных технологий, механики и оптики (НИУ ИТМО)</v>
       </c>
     </row>
@@ -43499,7 +43499,7 @@
       <c r="M525" s="7"/>
       <c r="N525" s="31" t="str">
         <f>INDEX(Авторы!C:C,MATCH(G525,Авторы!A:A,0))</f>
-        <v>Санкт-Петербургский институт информатики и автоматизации Российской академии наук (СПИИРАН),
+        <v>Санкт-Петербургский институт информатики и автоматизации Российской академии наук (СПИИРАН);
 Национальный исследовательский университет Информационных технологий, механики и оптики (НИУ ИТМО)</v>
       </c>
     </row>
@@ -43545,7 +43545,7 @@
       <c r="M526" s="7"/>
       <c r="N526" s="31" t="str">
         <f>INDEX(Авторы!C:C,MATCH(G526,Авторы!A:A,0))</f>
-        <v>Санкт-Петербургский институт информатики и автоматизации Российской академии наук (СПИИРАН),
+        <v>Санкт-Петербургский институт информатики и автоматизации Российской академии наук (СПИИРАН);
 Национальный исследовательский университет Информационных технологий, механики и оптики (НИУ ИТМО)</v>
       </c>
     </row>
@@ -43591,7 +43591,7 @@
       <c r="M527" s="7"/>
       <c r="N527" s="31" t="str">
         <f>INDEX(Авторы!C:C,MATCH(G527,Авторы!A:A,0))</f>
-        <v>Санкт-Петербургский институт информатики и автоматизации Российской академии наук (СПИИРАН),
+        <v>Санкт-Петербургский институт информатики и автоматизации Российской академии наук (СПИИРАН);
 Национальный исследовательский университет Информационных технологий, механики и оптики (НИУ ИТМО)</v>
       </c>
     </row>
@@ -43637,7 +43637,7 @@
       <c r="M528" s="7"/>
       <c r="N528" s="31" t="str">
         <f>INDEX(Авторы!C:C,MATCH(G528,Авторы!A:A,0))</f>
-        <v>Санкт-Петербургский институт информатики и автоматизации Российской академии наук (СПИИРАН),
+        <v>Санкт-Петербургский институт информатики и автоматизации Российской академии наук (СПИИРАН);
 Национальный исследовательский университет Информационных технологий, механики и оптики (НИУ ИТМО)</v>
       </c>
     </row>
@@ -43683,7 +43683,7 @@
       <c r="M529" s="7"/>
       <c r="N529" s="31" t="str">
         <f>INDEX(Авторы!C:C,MATCH(G529,Авторы!A:A,0))</f>
-        <v>Санкт-Петербургский институт информатики и автоматизации Российской академии наук (СПИИРАН),
+        <v>Санкт-Петербургский институт информатики и автоматизации Российской академии наук (СПИИРАН);
 Национальный исследовательский университет Информационных технологий, механики и оптики (НИУ ИТМО)</v>
       </c>
     </row>
@@ -43729,7 +43729,7 @@
       <c r="M530" s="7"/>
       <c r="N530" s="31" t="str">
         <f>INDEX(Авторы!C:C,MATCH(G530,Авторы!A:A,0))</f>
-        <v>Санкт-Петербургский институт информатики и автоматизации Российской академии наук (СПИИРАН),
+        <v>Санкт-Петербургский институт информатики и автоматизации Российской академии наук (СПИИРАН);
 Национальный исследовательский университет Информационных технологий, механики и оптики (НИУ ИТМО)</v>
       </c>
     </row>
@@ -43775,7 +43775,7 @@
       <c r="M531" s="7"/>
       <c r="N531" s="31" t="str">
         <f>INDEX(Авторы!C:C,MATCH(G531,Авторы!A:A,0))</f>
-        <v>Санкт-Петербургский институт информатики и автоматизации Российской академии наук (СПИИРАН),
+        <v>Санкт-Петербургский институт информатики и автоматизации Российской академии наук (СПИИРАН);
 Национальный исследовательский университет Информационных технологий, механики и оптики (НИУ ИТМО)</v>
       </c>
     </row>
@@ -43821,7 +43821,7 @@
       <c r="M532" s="7"/>
       <c r="N532" s="31" t="str">
         <f>INDEX(Авторы!C:C,MATCH(G532,Авторы!A:A,0))</f>
-        <v>Санкт-Петербургский институт информатики и автоматизации Российской академии наук (СПИИРАН),
+        <v>Санкт-Петербургский институт информатики и автоматизации Российской академии наук (СПИИРАН);
 Национальный исследовательский университет Информационных технологий, механики и оптики (НИУ ИТМО)</v>
       </c>
     </row>
@@ -43867,7 +43867,7 @@
       <c r="M533" s="7"/>
       <c r="N533" s="31" t="str">
         <f>INDEX(Авторы!C:C,MATCH(G533,Авторы!A:A,0))</f>
-        <v>Санкт-Петербургский институт информатики и автоматизации Российской академии наук (СПИИРАН),
+        <v>Санкт-Петербургский институт информатики и автоматизации Российской академии наук (СПИИРАН);
 Национальный исследовательский университет Информационных технологий, механики и оптики (НИУ ИТМО)</v>
       </c>
     </row>
@@ -43913,7 +43913,7 @@
       <c r="M534" s="7"/>
       <c r="N534" s="31" t="str">
         <f>INDEX(Авторы!C:C,MATCH(G534,Авторы!A:A,0))</f>
-        <v>Санкт-Петербургский институт информатики и автоматизации Российской академии наук (СПИИРАН),
+        <v>Санкт-Петербургский институт информатики и автоматизации Российской академии наук (СПИИРАН);
 Национальный исследовательский университет Информационных технологий, механики и оптики (НИУ ИТМО)</v>
       </c>
     </row>
@@ -48182,13 +48182,13 @@
         <v>1</v>
       </c>
       <c r="B627" s="6" t="s">
-        <v>731</v>
+        <v>729</v>
       </c>
       <c r="C627" s="5">
         <v>0</v>
       </c>
       <c r="D627" s="17" t="s">
-        <v>750</v>
+        <v>748</v>
       </c>
       <c r="E627" s="17" t="s">
         <v>122</v>
@@ -48227,13 +48227,13 @@
         <v>2</v>
       </c>
       <c r="B628" s="6" t="s">
-        <v>732</v>
+        <v>730</v>
       </c>
       <c r="C628" s="10">
         <v>1</v>
       </c>
       <c r="D628" s="17" t="s">
-        <v>750</v>
+        <v>748</v>
       </c>
       <c r="E628" s="17" t="s">
         <v>122</v>
@@ -48274,13 +48274,13 @@
         <v>3</v>
       </c>
       <c r="B629" s="6" t="s">
-        <v>733</v>
+        <v>731</v>
       </c>
       <c r="C629" s="5">
         <v>0</v>
       </c>
       <c r="D629" s="17" t="s">
-        <v>750</v>
+        <v>748</v>
       </c>
       <c r="E629" s="17" t="s">
         <v>122</v>
@@ -48321,13 +48321,13 @@
         <v>4</v>
       </c>
       <c r="B630" s="6" t="s">
-        <v>734</v>
+        <v>732</v>
       </c>
       <c r="C630" s="10">
         <v>2</v>
       </c>
       <c r="D630" s="17" t="s">
-        <v>750</v>
+        <v>748</v>
       </c>
       <c r="E630" s="17" t="s">
         <v>122</v>
@@ -48366,13 +48366,13 @@
         <v>5</v>
       </c>
       <c r="B631" s="6" t="s">
-        <v>735</v>
+        <v>733</v>
       </c>
       <c r="C631" s="5">
         <v>0</v>
       </c>
       <c r="D631" s="17" t="s">
-        <v>750</v>
+        <v>748</v>
       </c>
       <c r="E631" s="17" t="s">
         <v>122</v>
@@ -48411,13 +48411,13 @@
         <v>6</v>
       </c>
       <c r="B632" s="6" t="s">
-        <v>736</v>
+        <v>734</v>
       </c>
       <c r="C632" s="5">
         <v>0</v>
       </c>
       <c r="D632" s="17" t="s">
-        <v>750</v>
+        <v>748</v>
       </c>
       <c r="E632" s="17" t="s">
         <v>122</v>
@@ -48456,13 +48456,13 @@
         <v>7</v>
       </c>
       <c r="B633" s="6" t="s">
-        <v>737</v>
+        <v>735</v>
       </c>
       <c r="C633" s="5">
         <v>0</v>
       </c>
       <c r="D633" s="17" t="s">
-        <v>750</v>
+        <v>748</v>
       </c>
       <c r="E633" s="17" t="s">
         <v>122</v>
@@ -48503,13 +48503,13 @@
         <v>8</v>
       </c>
       <c r="B634" s="6" t="s">
-        <v>738</v>
+        <v>736</v>
       </c>
       <c r="C634" s="10">
         <v>1</v>
       </c>
       <c r="D634" s="17" t="s">
-        <v>750</v>
+        <v>748</v>
       </c>
       <c r="E634" s="17" t="s">
         <v>122</v>
@@ -48548,13 +48548,13 @@
         <v>9</v>
       </c>
       <c r="B635" s="6" t="s">
-        <v>739</v>
+        <v>737</v>
       </c>
       <c r="C635" s="5">
         <v>0</v>
       </c>
       <c r="D635" s="17" t="s">
-        <v>750</v>
+        <v>748</v>
       </c>
       <c r="E635" s="17" t="s">
         <v>122</v>
@@ -48599,7 +48599,7 @@
         <v>0</v>
       </c>
       <c r="D636" s="17" t="s">
-        <v>750</v>
+        <v>748</v>
       </c>
       <c r="E636" s="17" t="s">
         <v>122</v>
@@ -48640,13 +48640,13 @@
         <v>11</v>
       </c>
       <c r="B637" s="6" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
       <c r="C637" s="10">
         <v>1</v>
       </c>
       <c r="D637" s="17" t="s">
-        <v>750</v>
+        <v>748</v>
       </c>
       <c r="E637" s="17" t="s">
         <v>122</v>
@@ -48685,13 +48685,13 @@
         <v>12</v>
       </c>
       <c r="B638" s="6" t="s">
-        <v>741</v>
+        <v>739</v>
       </c>
       <c r="C638" s="5">
         <v>0</v>
       </c>
       <c r="D638" s="17" t="s">
-        <v>750</v>
+        <v>748</v>
       </c>
       <c r="E638" s="17" t="s">
         <v>122</v>
@@ -48730,13 +48730,13 @@
         <v>13</v>
       </c>
       <c r="B639" s="6" t="s">
-        <v>742</v>
+        <v>740</v>
       </c>
       <c r="C639" s="10">
         <v>3</v>
       </c>
       <c r="D639" s="17" t="s">
-        <v>750</v>
+        <v>748</v>
       </c>
       <c r="E639" s="17" t="s">
         <v>122</v>
@@ -48775,13 +48775,13 @@
         <v>14</v>
       </c>
       <c r="B640" s="6" t="s">
-        <v>743</v>
+        <v>741</v>
       </c>
       <c r="C640" s="5">
         <v>0</v>
       </c>
       <c r="D640" s="17" t="s">
-        <v>750</v>
+        <v>748</v>
       </c>
       <c r="E640" s="17" t="s">
         <v>122</v>
@@ -48820,13 +48820,13 @@
         <v>15</v>
       </c>
       <c r="B641" s="6" t="s">
-        <v>744</v>
+        <v>742</v>
       </c>
       <c r="C641" s="10">
         <v>1</v>
       </c>
       <c r="D641" s="17" t="s">
-        <v>750</v>
+        <v>748</v>
       </c>
       <c r="E641" s="17" t="s">
         <v>122</v>
@@ -48865,13 +48865,13 @@
         <v>16</v>
       </c>
       <c r="B642" s="6" t="s">
-        <v>745</v>
+        <v>743</v>
       </c>
       <c r="C642" s="10">
         <v>1</v>
       </c>
       <c r="D642" s="17" t="s">
-        <v>750</v>
+        <v>748</v>
       </c>
       <c r="E642" s="17" t="s">
         <v>122</v>
@@ -48910,13 +48910,13 @@
         <v>17</v>
       </c>
       <c r="B643" s="6" t="s">
-        <v>746</v>
+        <v>744</v>
       </c>
       <c r="C643" s="5">
         <v>0</v>
       </c>
       <c r="D643" s="17" t="s">
-        <v>750</v>
+        <v>748</v>
       </c>
       <c r="E643" s="17" t="s">
         <v>122</v>
@@ -48955,13 +48955,13 @@
         <v>18</v>
       </c>
       <c r="B644" s="6" t="s">
-        <v>747</v>
+        <v>745</v>
       </c>
       <c r="C644" s="5">
         <v>0</v>
       </c>
       <c r="D644" s="17" t="s">
-        <v>750</v>
+        <v>748</v>
       </c>
       <c r="E644" s="17" t="s">
         <v>122</v>
@@ -49000,13 +49000,13 @@
         <v>19</v>
       </c>
       <c r="B645" s="6" t="s">
-        <v>748</v>
+        <v>746</v>
       </c>
       <c r="C645" s="10">
         <v>8</v>
       </c>
       <c r="D645" s="17" t="s">
-        <v>750</v>
+        <v>748</v>
       </c>
       <c r="E645" s="17" t="s">
         <v>122</v>
@@ -49045,13 +49045,13 @@
         <v>20</v>
       </c>
       <c r="B646" s="6" t="s">
-        <v>749</v>
+        <v>747</v>
       </c>
       <c r="C646" s="10">
         <v>1</v>
       </c>
       <c r="D646" s="17" t="s">
-        <v>750</v>
+        <v>748</v>
       </c>
       <c r="E646" s="17" t="s">
         <v>122</v>
@@ -49090,13 +49090,13 @@
         <v>21</v>
       </c>
       <c r="B647" s="9" t="s">
-        <v>726</v>
+        <v>724</v>
       </c>
       <c r="C647" s="10">
         <v>1</v>
       </c>
       <c r="D647" s="17" t="s">
-        <v>750</v>
+        <v>748</v>
       </c>
       <c r="E647" s="17" t="s">
         <v>122</v>
@@ -49135,13 +49135,13 @@
         <v>22</v>
       </c>
       <c r="B648" s="9" t="s">
-        <v>727</v>
+        <v>725</v>
       </c>
       <c r="C648" s="5">
         <v>0</v>
       </c>
       <c r="D648" s="17" t="s">
-        <v>750</v>
+        <v>748</v>
       </c>
       <c r="E648" s="17" t="s">
         <v>122</v>
@@ -49180,13 +49180,13 @@
         <v>23</v>
       </c>
       <c r="B649" s="12" t="s">
-        <v>728</v>
+        <v>726</v>
       </c>
       <c r="C649" s="5">
         <v>0</v>
       </c>
       <c r="D649" s="17" t="s">
-        <v>750</v>
+        <v>748</v>
       </c>
       <c r="E649" s="17" t="s">
         <v>122</v>
@@ -49225,13 +49225,13 @@
         <v>24</v>
       </c>
       <c r="B650" s="12" t="s">
-        <v>729</v>
+        <v>727</v>
       </c>
       <c r="C650" s="5">
         <v>0</v>
       </c>
       <c r="D650" s="17" t="s">
-        <v>750</v>
+        <v>748</v>
       </c>
       <c r="E650" s="17" t="s">
         <v>122</v>
@@ -49270,13 +49270,13 @@
         <v>25</v>
       </c>
       <c r="B651" s="12" t="s">
-        <v>730</v>
+        <v>728</v>
       </c>
       <c r="C651" s="5">
         <v>0</v>
       </c>
       <c r="D651" s="17" t="s">
-        <v>750</v>
+        <v>748</v>
       </c>
       <c r="E651" s="17" t="s">
         <v>122</v>
@@ -49315,13 +49315,13 @@
         <v>1</v>
       </c>
       <c r="B652" s="6" t="s">
-        <v>759</v>
+        <v>757</v>
       </c>
       <c r="C652" s="10">
         <v>1</v>
       </c>
       <c r="D652" s="7" t="s">
-        <v>762</v>
+        <v>760</v>
       </c>
       <c r="E652" s="17" t="s">
         <v>69</v>
@@ -49362,13 +49362,13 @@
         <v>2</v>
       </c>
       <c r="B653" s="6" t="s">
+        <v>758</v>
+      </c>
+      <c r="C653" s="15">
+        <v>0</v>
+      </c>
+      <c r="D653" s="7" t="s">
         <v>760</v>
-      </c>
-      <c r="C653" s="15">
-        <v>0</v>
-      </c>
-      <c r="D653" s="7" t="s">
-        <v>762</v>
       </c>
       <c r="E653" s="17" t="s">
         <v>69</v>
@@ -49409,13 +49409,13 @@
         <v>3</v>
       </c>
       <c r="B654" s="6" t="s">
-        <v>761</v>
+        <v>759</v>
       </c>
       <c r="C654" s="15">
         <v>0</v>
       </c>
       <c r="D654" s="7" t="s">
-        <v>762</v>
+        <v>760</v>
       </c>
       <c r="E654" s="17" t="s">
         <v>69</v>
@@ -49911,9 +49911,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L15" sqref="L15"/>
+      <selection pane="bottomLeft" activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -49963,13 +49963,13 @@
         <v>657</v>
       </c>
       <c r="J1" s="36" t="s">
+        <v>761</v>
+      </c>
+      <c r="K1" s="36" t="s">
+        <v>762</v>
+      </c>
+      <c r="L1" s="36" t="s">
         <v>763</v>
-      </c>
-      <c r="K1" s="36" t="s">
-        <v>764</v>
-      </c>
-      <c r="L1" s="36" t="s">
-        <v>765</v>
       </c>
       <c r="M1" s="35" t="s">
         <v>658</v>
@@ -50089,10 +50089,10 @@
     </row>
     <row r="5" spans="1:14" ht="105" x14ac:dyDescent="0.25">
       <c r="A5" s="34" t="s">
-        <v>724</v>
+        <v>722</v>
       </c>
       <c r="B5" s="34" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="C5" s="34" t="s">
         <v>631</v>
@@ -50126,13 +50126,13 @@
     </row>
     <row r="6" spans="1:14" ht="135" x14ac:dyDescent="0.25">
       <c r="A6" s="34" t="s">
-        <v>722</v>
+        <v>720</v>
       </c>
       <c r="B6" s="34" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="C6" s="34" t="s">
-        <v>674</v>
+        <v>764</v>
       </c>
       <c r="D6" s="34" t="s">
         <v>632</v>
@@ -50163,31 +50163,31 @@
     </row>
     <row r="7" spans="1:14" ht="105" x14ac:dyDescent="0.25">
       <c r="A7" s="34" t="s">
-        <v>725</v>
+        <v>723</v>
       </c>
       <c r="B7" s="34" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="C7" s="34" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="D7" s="34" t="s">
         <v>632</v>
       </c>
       <c r="E7" s="34" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="F7" s="34" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="G7" s="34" t="s">
         <v>661</v>
       </c>
       <c r="H7" s="34" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="I7" s="34" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="J7" s="34">
         <f>SUMIFS(Публикации!M:M,Публикации!G:G,Авторы!A7)</f>
@@ -50200,31 +50200,31 @@
     </row>
     <row r="8" spans="1:14" ht="105" x14ac:dyDescent="0.25">
       <c r="A8" s="34" t="s">
-        <v>723</v>
+        <v>721</v>
       </c>
       <c r="B8" s="34" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="C8" s="34" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="D8" s="34" t="s">
         <v>632</v>
       </c>
       <c r="E8" s="34" t="s">
+        <v>684</v>
+      </c>
+      <c r="F8" s="34" t="s">
+        <v>680</v>
+      </c>
+      <c r="G8" s="34" t="s">
+        <v>688</v>
+      </c>
+      <c r="H8" s="34" t="s">
+        <v>682</v>
+      </c>
+      <c r="I8" s="34" t="s">
         <v>685</v>
-      </c>
-      <c r="F8" s="34" t="s">
-        <v>681</v>
-      </c>
-      <c r="G8" s="34" t="s">
-        <v>689</v>
-      </c>
-      <c r="H8" s="34" t="s">
-        <v>683</v>
-      </c>
-      <c r="I8" s="34" t="s">
-        <v>686</v>
       </c>
       <c r="J8" s="34">
         <f>SUMIFS(Публикации!M:M,Публикации!G:G,Авторы!A8)</f>
@@ -50237,31 +50237,31 @@
     </row>
     <row r="9" spans="1:14" ht="75" x14ac:dyDescent="0.25">
       <c r="A9" s="34" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="B9" s="34" t="s">
         <v>642</v>
       </c>
       <c r="C9" s="34" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="D9" s="34" t="s">
         <v>641</v>
       </c>
       <c r="E9" s="34" t="s">
+        <v>691</v>
+      </c>
+      <c r="F9" s="34" t="s">
+        <v>687</v>
+      </c>
+      <c r="G9" s="34" t="s">
+        <v>689</v>
+      </c>
+      <c r="H9" s="34" t="s">
+        <v>690</v>
+      </c>
+      <c r="I9" s="34" t="s">
         <v>692</v>
-      </c>
-      <c r="F9" s="34" t="s">
-        <v>688</v>
-      </c>
-      <c r="G9" s="34" t="s">
-        <v>690</v>
-      </c>
-      <c r="H9" s="34" t="s">
-        <v>691</v>
-      </c>
-      <c r="I9" s="34" t="s">
-        <v>693</v>
       </c>
       <c r="J9" s="34">
         <f>SUMIFS(Публикации!M:M,Публикации!G:G,Авторы!A9)</f>
@@ -50274,31 +50274,31 @@
     </row>
     <row r="10" spans="1:14" ht="60" x14ac:dyDescent="0.25">
       <c r="A10" s="34" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="B10" s="34" t="s">
         <v>643</v>
       </c>
       <c r="C10" s="34" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="D10" s="34" t="s">
         <v>641</v>
       </c>
       <c r="E10" s="34" t="s">
+        <v>697</v>
+      </c>
+      <c r="F10" s="34" t="s">
+        <v>694</v>
+      </c>
+      <c r="G10" s="34" t="s">
+        <v>695</v>
+      </c>
+      <c r="H10" s="34" t="s">
         <v>698</v>
       </c>
-      <c r="F10" s="34" t="s">
-        <v>695</v>
-      </c>
-      <c r="G10" s="34" t="s">
-        <v>696</v>
-      </c>
-      <c r="H10" s="34" t="s">
+      <c r="I10" s="34" t="s">
         <v>699</v>
-      </c>
-      <c r="I10" s="34" t="s">
-        <v>700</v>
       </c>
       <c r="J10" s="34">
         <f>SUMIFS(Публикации!M:M,Публикации!G:G,Авторы!A10)</f>
@@ -50311,31 +50311,31 @@
     </row>
     <row r="11" spans="1:14" ht="120" x14ac:dyDescent="0.25">
       <c r="A11" s="34" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="B11" s="34" t="s">
         <v>644</v>
       </c>
       <c r="C11" s="34" t="s">
-        <v>703</v>
+        <v>765</v>
       </c>
       <c r="D11" s="34" t="s">
         <v>641</v>
       </c>
       <c r="E11" s="34" t="s">
+        <v>701</v>
+      </c>
+      <c r="F11" s="34" t="s">
         <v>702</v>
       </c>
-      <c r="F11" s="34" t="s">
+      <c r="G11" s="34" t="s">
+        <v>703</v>
+      </c>
+      <c r="H11" s="34" t="s">
         <v>704</v>
       </c>
-      <c r="G11" s="34" t="s">
+      <c r="I11" s="34" t="s">
         <v>705</v>
-      </c>
-      <c r="H11" s="34" t="s">
-        <v>706</v>
-      </c>
-      <c r="I11" s="34" t="s">
-        <v>707</v>
       </c>
       <c r="J11" s="34">
         <f>SUMIFS(Публикации!M:M,Публикации!G:G,Авторы!A11)</f>
@@ -50348,13 +50348,13 @@
     </row>
     <row r="12" spans="1:14" ht="75" x14ac:dyDescent="0.25">
       <c r="A12" s="34" t="s">
-        <v>710</v>
+        <v>708</v>
       </c>
       <c r="B12" s="34" t="s">
         <v>646</v>
       </c>
       <c r="C12" s="34" t="s">
-        <v>708</v>
+        <v>706</v>
       </c>
       <c r="D12" s="34" t="s">
         <v>632</v>
@@ -50363,13 +50363,13 @@
         <v>645</v>
       </c>
       <c r="F12" s="34" t="s">
+        <v>707</v>
+      </c>
+      <c r="G12" s="34" t="s">
         <v>709</v>
       </c>
-      <c r="G12" s="34" t="s">
-        <v>711</v>
-      </c>
       <c r="H12" s="34" t="s">
-        <v>714</v>
+        <v>712</v>
       </c>
       <c r="I12" s="34" t="s">
         <v>647</v>
@@ -50385,31 +50385,31 @@
     </row>
     <row r="13" spans="1:14" ht="75" x14ac:dyDescent="0.25">
       <c r="A13" s="34" t="s">
-        <v>712</v>
+        <v>710</v>
       </c>
       <c r="B13" s="34" t="s">
         <v>648</v>
       </c>
       <c r="C13" s="34" t="s">
-        <v>716</v>
+        <v>714</v>
       </c>
       <c r="D13" s="34" t="s">
         <v>632</v>
       </c>
       <c r="E13" s="34" t="s">
-        <v>719</v>
+        <v>717</v>
       </c>
       <c r="F13" s="34" t="s">
-        <v>717</v>
+        <v>715</v>
       </c>
       <c r="G13" s="34" t="s">
+        <v>711</v>
+      </c>
+      <c r="H13" s="34" t="s">
+        <v>716</v>
+      </c>
+      <c r="I13" s="34" t="s">
         <v>713</v>
-      </c>
-      <c r="H13" s="34" t="s">
-        <v>718</v>
-      </c>
-      <c r="I13" s="34" t="s">
-        <v>715</v>
       </c>
       <c r="J13" s="34">
         <f>SUMIFS(Публикации!M:M,Публикации!G:G,Авторы!A13)</f>
@@ -50422,31 +50422,31 @@
     </row>
     <row r="14" spans="1:14" ht="75" x14ac:dyDescent="0.25">
       <c r="A14" s="34" t="s">
-        <v>752</v>
+        <v>750</v>
       </c>
       <c r="B14" s="34" t="s">
+        <v>749</v>
+      </c>
+      <c r="C14" s="34" t="s">
         <v>751</v>
-      </c>
-      <c r="C14" s="34" t="s">
-        <v>753</v>
       </c>
       <c r="D14" s="34" t="s">
         <v>641</v>
       </c>
       <c r="E14" s="34" t="s">
+        <v>754</v>
+      </c>
+      <c r="F14" s="34" t="s">
+        <v>755</v>
+      </c>
+      <c r="G14" s="34" t="s">
         <v>756</v>
       </c>
-      <c r="F14" s="34" t="s">
-        <v>757</v>
-      </c>
-      <c r="G14" s="34" t="s">
-        <v>758</v>
-      </c>
       <c r="H14" s="34" t="s">
-        <v>754</v>
+        <v>752</v>
       </c>
       <c r="I14" s="34" t="s">
-        <v>755</v>
+        <v>753</v>
       </c>
       <c r="J14" s="34">
         <f>SUMIFS(Публикации!M:M,Публикации!G:G,Авторы!A14)</f>
@@ -50488,7 +50488,7 @@
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
-        <v>724</v>
+        <v>722</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
@@ -50498,27 +50498,27 @@
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
-        <v>723</v>
+        <v>721</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" s="17" t="s">
-        <v>752</v>
+        <v>750</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" s="17" t="s">
-        <v>712</v>
+        <v>710</v>
       </c>
     </row>
   </sheetData>
